--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\KTPM_QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>TC16</t>
   </si>
@@ -538,6 +538,184 @@
   </si>
   <si>
     <t>Load form Menu</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Thêm món ăn</t>
+  </si>
+  <si>
+    <t>Cập nhật danh sách món ăn mới với Mã Món Ăn, Tên Món Ăn và Đơn Giá</t>
+  </si>
+  <si>
+    <t>1. Nhập Tên Món Ăn &gt; Đơn Giá                                  2.Click chọn button Thêm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên Món Ăn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           2. Không nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   3.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Vui lòng nhập chính xác Đơn Giá"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 2. Không nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên Món Ăn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Vui lòng nhập chính xác Tên Món Ăn"</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>Xóa món ăn</t>
+  </si>
+  <si>
+    <t>1.Click chọn dòng Món Ăn cần xóa
+2.Click button Xóa
+3.Chọn Yes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị thông báo "Bạn có chắc chắn muốn xóa"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xóa dòng Món Ăn đã chọn.Cập nhật lại csdl</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>Sửa món ăn</t>
+  </si>
+  <si>
+    <t>1.Click chọn dòng Món Ăn cần Sửa                                   2.Chỉnh sửa Tên Món Ăn, Đơn giá     
+3.Click button Sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click chọn dòng Món Ăn cần Sửa                                   2.1Chỉ Chỉnh sửa Đơn Giá hoặc Tên Món Ăn              2.2 Để trống Tên Món Ăn hoặc Đơn Giá    
+3.Click button Sửa
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Hiển thị thông báo "Vui lòng nhập chính xác đơn giá"(hoặc: "Vui lòng nhập chính xác tên món ăn")</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click chọn dòng Món Ăn có sẵn                                      2. Click chọn button Thêm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Món ăn đã tồn tại, nhấn sửa để cập nhật thêm"</t>
   </si>
 </sst>
 </file>
@@ -723,7 +901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1194,6 +1372,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1201,7 +1388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1517,126 +1704,142 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4244,16 +4447,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4261,7 +4464,7 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>12</v>
@@ -4298,7 +4501,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -4356,7 +4559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" ht="25.5">
+    <row r="11" spans="1:8" s="24" customFormat="1" ht="26.4">
       <c r="B11" s="40" t="s">
         <v>19</v>
       </c>
@@ -4379,7 +4582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="24" customFormat="1">
+    <row r="12" spans="1:8" s="24" customFormat="1" ht="26.4">
       <c r="B12" s="26">
         <v>39293</v>
       </c>
@@ -4398,7 +4601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="24" customFormat="1">
+    <row r="13" spans="1:8" s="24" customFormat="1" ht="26.4">
       <c r="B13" s="63">
         <v>39295</v>
       </c>
@@ -4419,7 +4622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" ht="12.75">
+    <row r="14" spans="1:8" s="25" customFormat="1" ht="26.4">
       <c r="B14" s="26">
         <v>39311</v>
       </c>
@@ -4440,7 +4643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="12.75">
+    <row r="15" spans="1:8" s="25" customFormat="1" ht="13.2">
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="31"/>
@@ -4540,32 +4743,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="66" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="104" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.75" style="66" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="66" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="66" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="104" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.77734375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="66" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="66" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="105" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="66"/>
+    <col min="10" max="10" width="5.44140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="65" customFormat="1">
       <c r="A1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -4574,11 +4777,11 @@
       <c r="J1" s="69"/>
       <c r="K1" s="64"/>
     </row>
-    <row r="2" spans="1:11" s="65" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" s="65" customFormat="1" ht="16.2" thickBot="1">
       <c r="A2" s="64"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -4587,55 +4790,55 @@
       <c r="J2" s="69"/>
       <c r="K2" s="64"/>
     </row>
-    <row r="3" spans="1:11" s="65" customFormat="1">
+    <row r="3" spans="1:11" s="65" customFormat="1" ht="31.2">
       <c r="A3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" s="65" customFormat="1">
+    <row r="4" spans="1:11" s="65" customFormat="1" ht="31.2">
       <c r="A4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" s="75" customFormat="1" ht="31.5">
+    <row r="5" spans="1:11" s="75" customFormat="1" ht="31.2">
       <c r="A5" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
       <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" s="65" customFormat="1">
@@ -4644,24 +4847,24 @@
       </c>
       <c r="B6" s="77">
         <f>COUNTIF(I12:I39,"Pass")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="79">
-        <f>COUNTIF(I10:I761,"Pending")</f>
+        <f>COUNTIF(I10:I766,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="64"/>
     </row>
-    <row r="7" spans="1:11" s="65" customFormat="1" ht="16.5" thickBot="1">
+    <row r="7" spans="1:11" s="65" customFormat="1" ht="16.2" thickBot="1">
       <c r="A7" s="81" t="s">
         <v>10</v>
       </c>
@@ -4673,22 +4876,22 @@
         <v>36</v>
       </c>
       <c r="D7" s="84">
-        <f>COUNTA(A12:A42) -15</f>
-        <v>7</v>
+        <f>COUNTA(A12:A47) -15</f>
+        <v>10</v>
       </c>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="85"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" s="65" customFormat="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="80"/>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
@@ -4698,72 +4901,72 @@
       <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:11" s="65" customFormat="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="159" t="s">
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="137" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:11" s="88" customFormat="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="136"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="144"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="152"/>
       <c r="H10" s="142"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="1:11" s="89" customFormat="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-    </row>
-    <row r="13" spans="1:11" s="89" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="126"/>
+    </row>
+    <row r="13" spans="1:11" s="89" customFormat="1" ht="62.4" outlineLevel="1">
       <c r="A13" s="112" t="s">
         <v>3</v>
       </c>
@@ -4776,8 +4979,8 @@
       <c r="D13" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
       <c r="G13" s="92"/>
       <c r="H13" s="106">
         <v>43779</v>
@@ -4787,7 +4990,7 @@
       </c>
       <c r="J13" s="93"/>
     </row>
-    <row r="14" spans="1:11" s="89" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="14" spans="1:11" s="89" customFormat="1" ht="93.6" outlineLevel="1">
       <c r="A14" s="112" t="s">
         <v>4</v>
       </c>
@@ -4811,7 +5014,7 @@
       </c>
       <c r="J14" s="93"/>
     </row>
-    <row r="15" spans="1:11" s="89" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="15" spans="1:11" s="89" customFormat="1" ht="93.6" outlineLevel="1">
       <c r="A15" s="112" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +5038,7 @@
       </c>
       <c r="J15" s="93"/>
     </row>
-    <row r="16" spans="1:11" s="89" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="16" spans="1:11" s="89" customFormat="1" ht="93.6" outlineLevel="1">
       <c r="A16" s="112" t="s">
         <v>6</v>
       </c>
@@ -4859,7 +5062,7 @@
       </c>
       <c r="J16" s="93"/>
     </row>
-    <row r="17" spans="1:14" s="89" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="17" spans="1:14" s="89" customFormat="1" ht="93.6" outlineLevel="1">
       <c r="A17" s="112" t="s">
         <v>7</v>
       </c>
@@ -4883,7 +5086,7 @@
       </c>
       <c r="J17" s="93"/>
     </row>
-    <row r="18" spans="1:14" s="89" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="18" spans="1:14" s="89" customFormat="1" ht="93.6" outlineLevel="1">
       <c r="A18" s="112" t="s">
         <v>8</v>
       </c>
@@ -4893,7 +5096,7 @@
       <c r="C18" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="162" t="s">
+      <c r="D18" s="123" t="s">
         <v>130</v>
       </c>
       <c r="E18" s="122"/>
@@ -4908,20 +5111,20 @@
       <c r="J18" s="93"/>
     </row>
     <row r="19" spans="1:14" s="89" customFormat="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
-    </row>
-    <row r="20" spans="1:14" s="98" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
       <c r="A20" s="112" t="s">
         <v>9</v>
       </c>
@@ -4944,7 +5147,7 @@
       </c>
       <c r="J20" s="95"/>
     </row>
-    <row r="21" spans="1:14" s="98" customFormat="1" ht="47.25" outlineLevel="1">
+    <row r="21" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
       <c r="A21" s="112" t="s">
         <v>48</v>
       </c>
@@ -4967,7 +5170,7 @@
       </c>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="1:14" s="98" customFormat="1" ht="110.25" outlineLevel="1">
+    <row r="22" spans="1:14" s="98" customFormat="1" ht="109.2" outlineLevel="1">
       <c r="A22" s="112" t="s">
         <v>49</v>
       </c>
@@ -4994,7 +5197,7 @@
       <c r="M22" s="101"/>
       <c r="N22" s="101"/>
     </row>
-    <row r="23" spans="1:14" s="98" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="23" spans="1:14" s="98" customFormat="1" ht="78" outlineLevel="1">
       <c r="A23" s="112" t="s">
         <v>50</v>
       </c>
@@ -5017,7 +5220,7 @@
       </c>
       <c r="J23" s="95"/>
     </row>
-    <row r="24" spans="1:14" s="98" customFormat="1" ht="78.75" outlineLevel="1">
+    <row r="24" spans="1:14" s="98" customFormat="1" ht="78" outlineLevel="1">
       <c r="A24" s="112" t="s">
         <v>51</v>
       </c>
@@ -5041,30 +5244,30 @@
       <c r="J24" s="95"/>
     </row>
     <row r="25" spans="1:14" s="89" customFormat="1" outlineLevel="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-    </row>
-    <row r="26" spans="1:14" s="98" customFormat="1" ht="63" outlineLevel="1">
-      <c r="A26" s="125" t="s">
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
+    </row>
+    <row r="26" spans="1:14" s="98" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A26" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="159" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="158" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="122"/>
@@ -5077,9 +5280,9 @@
       </c>
       <c r="J26" s="95"/>
     </row>
-    <row r="27" spans="1:14" s="98" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A27" s="131"/>
-      <c r="B27" s="134"/>
+    <row r="27" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A27" s="155"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="97" t="s">
         <v>108</v>
       </c>
@@ -5096,7 +5299,7 @@
       </c>
       <c r="J27" s="95"/>
     </row>
-    <row r="28" spans="1:14" s="98" customFormat="1" ht="47.25" outlineLevel="1">
+    <row r="28" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
       <c r="A28" s="112" t="s">
         <v>53</v>
       </c>
@@ -5119,21 +5322,21 @@
       </c>
       <c r="J28" s="95"/>
     </row>
-    <row r="29" spans="1:14" s="98" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A29" s="125" t="s">
+    <row r="29" spans="1:14" s="98" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A29" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="159" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D29" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
       <c r="H29" s="109">
         <v>43779</v>
       </c>
@@ -5143,8 +5346,8 @@
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:14" s="98" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="124"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="161"/>
       <c r="C30" s="97" t="s">
         <v>115</v>
       </c>
@@ -5162,30 +5365,30 @@
       <c r="J30" s="95"/>
     </row>
     <row r="31" spans="1:14" s="89" customFormat="1" outlineLevel="1">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
-    </row>
-    <row r="32" spans="1:14" s="98" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A32" s="125" t="s">
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
+    </row>
+    <row r="32" spans="1:14" s="98" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A32" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="159" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="130" t="s">
+      <c r="D32" s="158" t="s">
         <v>118</v>
       </c>
       <c r="E32" s="122"/>
@@ -5198,9 +5401,9 @@
       </c>
       <c r="J32" s="95"/>
     </row>
-    <row r="33" spans="1:10" s="98" customFormat="1" ht="63" outlineLevel="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="124"/>
+    <row r="33" spans="1:10" s="98" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A33" s="162"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="97" t="s">
         <v>120</v>
       </c>
@@ -5217,17 +5420,17 @@
       </c>
       <c r="J33" s="95"/>
     </row>
-    <row r="34" spans="1:10" s="98" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A34" s="125" t="s">
+    <row r="34" spans="1:10" s="98" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A34" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="159" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="130" t="s">
+      <c r="D34" s="158" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="122"/>
@@ -5240,9 +5443,9 @@
       </c>
       <c r="J34" s="95"/>
     </row>
-    <row r="35" spans="1:10" s="98" customFormat="1" ht="63" outlineLevel="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="124"/>
+    <row r="35" spans="1:10" s="98" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A35" s="162"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="97" t="s">
         <v>125</v>
       </c>
@@ -5259,7 +5462,7 @@
       </c>
       <c r="J35" s="95"/>
     </row>
-    <row r="36" spans="1:10" s="89" customFormat="1" ht="47.25" outlineLevel="1">
+    <row r="36" spans="1:10" s="89" customFormat="1" ht="62.4" outlineLevel="1">
       <c r="A36" s="117" t="s">
         <v>1</v>
       </c>
@@ -5284,86 +5487,251 @@
       <c r="J36" s="95"/>
     </row>
     <row r="37" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="129"/>
-    </row>
-    <row r="38" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="130"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="126"/>
+    </row>
+    <row r="38" spans="1:10" s="98" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A38" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="158" t="s">
+        <v>133</v>
+      </c>
       <c r="E38" s="122"/>
       <c r="F38" s="122"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="103"/>
+      <c r="H38" s="109">
+        <v>43779</v>
+      </c>
+      <c r="I38" s="99" t="s">
+        <v>44</v>
+      </c>
       <c r="J38" s="95"/>
     </row>
-    <row r="39" spans="1:10" s="89" customFormat="1">
-      <c r="A39" s="90"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
+    <row r="39" spans="1:10" s="89" customFormat="1" ht="46.8">
+      <c r="A39" s="155"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="163" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
       <c r="G39" s="98"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="95"/>
-    </row>
-    <row r="40" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A40" s="127"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="129"/>
-    </row>
-    <row r="41" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A41" s="90"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="103"/>
+      <c r="H39" s="165">
+        <v>43779</v>
+      </c>
+      <c r="I39" s="166" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="167"/>
+    </row>
+    <row r="40" spans="1:10" s="89" customFormat="1" ht="46.8">
+      <c r="A40" s="155"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="165">
+        <v>43779</v>
+      </c>
+      <c r="I40" s="166" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="95"/>
+    </row>
+    <row r="41" spans="1:10" s="89" customFormat="1" ht="46.8">
+      <c r="A41" s="162"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="165">
+        <v>43779</v>
+      </c>
+      <c r="I41" s="166" t="s">
+        <v>44</v>
+      </c>
       <c r="J41" s="95"/>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="90"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="130"/>
+    <row r="42" spans="1:10" s="89" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A42" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="158" t="s">
+        <v>124</v>
+      </c>
       <c r="E42" s="122"/>
       <c r="F42" s="122"/>
       <c r="G42" s="98"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="103"/>
+      <c r="H42" s="109">
+        <v>43779</v>
+      </c>
+      <c r="I42" s="99" t="s">
+        <v>44</v>
+      </c>
       <c r="J42" s="95"/>
     </row>
+    <row r="43" spans="1:10" s="89" customFormat="1" ht="93.6" customHeight="1">
+      <c r="A43" s="162"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="109">
+        <v>43779</v>
+      </c>
+      <c r="I43" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="95"/>
+    </row>
+    <row r="44" spans="1:10" s="89" customFormat="1" ht="62.4">
+      <c r="A44" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="109">
+        <v>43779</v>
+      </c>
+      <c r="I44" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="95"/>
+    </row>
+    <row r="45" spans="1:10" s="98" customFormat="1" outlineLevel="1">
+      <c r="A45" s="124"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="126"/>
+    </row>
+    <row r="46" spans="1:10" s="98" customFormat="1" outlineLevel="1">
+      <c r="A46" s="90"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="95"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="90"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="95"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
+  <mergeCells count="66">
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -5379,41 +5747,13 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5430,13 +5770,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="22.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -5456,7 +5796,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
@@ -5466,7 +5806,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="13.8">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5476,7 +5816,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5485,7 +5825,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5494,7 +5834,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="9"/>
       <c r="B7" s="43" t="s">
         <v>25</v>
@@ -5515,7 +5855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="52" customFormat="1" ht="14.25">
+    <row r="8" spans="1:7" s="52" customFormat="1" ht="13.8">
       <c r="A8" s="53"/>
       <c r="B8" s="54">
         <v>1</v>
@@ -5526,7 +5866,7 @@
       </c>
       <c r="D8" s="56">
         <f>'Export all carrier choices'!B6</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="55">
         <f>'Export all carrier choices'!B7</f>
@@ -5538,10 +5878,10 @@
       </c>
       <c r="G8" s="56">
         <f>'Export all carrier choices'!D7</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="8"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
@@ -5550,7 +5890,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="8"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
@@ -5558,7 +5898,7 @@
       </c>
       <c r="D10" s="49">
         <f>SUM(D6:D9)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="49">
         <f>SUM(E6:E9)</f>
@@ -5570,10 +5910,10 @@
       </c>
       <c r="G10" s="50">
         <f>SUM(G6:G9)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
@@ -5582,7 +5922,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -5591,14 +5931,14 @@
       <c r="D12" s="8"/>
       <c r="E12" s="13">
         <f>(D10+E10)*100/G10</f>
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -5607,7 +5947,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="13">
         <f>D10*100/G10</f>
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>30</v>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="1716" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -42,15 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
   <si>
     <t>TC16</t>
   </si>
   <si>
     <t>TC17</t>
-  </si>
-  <si>
-    <t>31/07/2007</t>
   </si>
   <si>
     <t>TC1</t>
@@ -84,12 +81,6 @@
     <t>TEST CASE</t>
   </si>
   <si>
-    <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Change location</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>Issue date:</t>
   </si>
   <si>
-    <t>Test Case Procedure</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -151,24 +139,12 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Test date</t>
-  </si>
-  <si>
-    <t>Number of test cases:</t>
-  </si>
-  <si>
-    <t>Expected Output</t>
-  </si>
-  <si>
     <t>Test requirement:</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Version:</t>
   </si>
   <si>
@@ -187,9 +163,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>CR236 "Export all carrier choices"</t>
-  </si>
-  <si>
     <t>TC8</t>
   </si>
   <si>
@@ -223,30 +196,12 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Sameple project</t>
-  </si>
-  <si>
-    <t>UTEHY-SE01</t>
-  </si>
-  <si>
-    <t>Test Leader 01</t>
-  </si>
-  <si>
-    <t>Sample Project</t>
-  </si>
-  <si>
     <t>CR100 - Export to excel</t>
   </si>
   <si>
     <t xml:space="preserve">CR1 - </t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
     <t>System Name：</t>
   </si>
   <si>
@@ -256,9 +211,6 @@
     <t>1.Kiểm tra đăng nhập</t>
   </si>
   <si>
-    <t>Hiển thị thông báo "Vui lòng nhập tên tài khoản"</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng đăng nhập khi không nhập thông tin</t>
   </si>
   <si>
@@ -268,22 +220,10 @@
     <t>Kiểm tra chức năng đăng nhập khi không nhập password</t>
   </si>
   <si>
-    <t>Hiển thị thông báo "Vui lòng nhập mật khẩu"</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Vui lòng nhập thông tin tài khoản"</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Sai tài khoản"</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng đăng nhập khi nhập sai username</t>
   </si>
   <si>
     <t>Kiểm tra chức năng đăng nhập khi nhập sai password</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Sai mật khẩu"</t>
   </si>
   <si>
     <t>Kiểm tra chức năng đăng nhập khi nhập đúng tài khoản trong csdl mẫu</t>
@@ -323,13 +263,6 @@
   <si>
     <t>1.Mở ứng dụng
 2.Click chọn Nhân Viên
-3.Nhập username: Bac1
-4.Nhập password:123
-5.Click chọn button Đăng nhập</t>
-  </si>
-  <si>
-    <t>1.Mở ứng dụng
-2.Click chọn Nhân Viên
 3.Nhập username: bac1
 4.Nhập password:1234
 5.Click chọn button Đăng nhập</t>
@@ -339,9 +272,6 @@
 2.Click chọn button Đặt bàn</t>
   </si>
   <si>
-    <t>Hiển thị thông báo "Vui lòng nhập thông tin khách hàng"</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng đặt bàn khi không nhập tên khách hàng</t>
   </si>
   <si>
@@ -350,16 +280,7 @@
 3.Click chọn button Đặt bàn</t>
   </si>
   <si>
-    <t>Hiển thị thông báo "Vui lòng nhập tên chính xác"</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Vui lòng đúng số điện thoại"</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng đặt bàn khi không nhập hoặc nhập sai số lượng quy định(0&lt;SN&lt;100)</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Vui lòng nhập số người chính xác"</t>
   </si>
   <si>
     <t>Kiểm tra chức năng đặt bàn khi nhập đúng thông tin khách hàng</t>
@@ -385,16 +306,10 @@
 5.Click chọn button Đặt bàn</t>
   </si>
   <si>
-    <t>Hiển thị thông báo "Đặt bàn thành công"</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng đặt bàn khi nhập sđt không nhập hoặc nhập không đúng định dạng đã chọn(10 số cho đt di động và 11 số cho đt bàn)</t>
   </si>
   <si>
     <t>3.Kiểm tra chức năng quản lí bàn</t>
-  </si>
-  <si>
-    <t>Thêm bàn</t>
   </si>
   <si>
     <t>Hiển thị thông báo "Vui lòng nhập sức chứa của bàn"</t>
@@ -411,9 +326,6 @@
     <t>1.Nhập sai sức chứa
 2.Chọn ccb tình trạng
 3.Click chọn button Thêm</t>
-  </si>
-  <si>
-    <t>Xóa bàn</t>
   </si>
   <si>
     <t>1.Click chọn bàn cần xóa
@@ -468,22 +380,6 @@
     <t>Thêm nhân viên</t>
   </si>
   <si>
-    <t>Lưu toàn bộ thông tin nhân viên đã nhập vào ds nhân viên và csdl(Mã nhân viên tăng theo stt)</t>
-  </si>
-  <si>
-    <t>1.Nhập họ tên , quốc tịch nhân viên
-2.Chọn ngày sinh , giới tính, trình độ, chức vụ cho nhân viên
-3.Click chọn button Thêm</t>
-  </si>
-  <si>
-    <t>1.Không nhập tên nhân viên
-2.Chọn  ngày sinh , giới tính, trình độ, chức vụ cho nhân viên
-3.Click chọn button Thêm</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Vui lòng nhập tên nhân viên"</t>
-  </si>
-  <si>
     <t>Xóa nhân viên</t>
   </si>
   <si>
@@ -508,18 +404,11 @@
 3.Chọn Yes</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hiển thị thông báo "Bạn có chắc chắn muốn xóa"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xóa nhân viên đã chọn.Cập nhật lại csdl</t>
+    <t>TC18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập </t>
     </r>
     <r>
       <rPr>
@@ -529,27 +418,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>5.Kiểm tra chức năng quản lí món ăn</t>
-  </si>
-  <si>
-    <t>Load form Menu</t>
-  </si>
-  <si>
-    <t>TC18</t>
-  </si>
-  <si>
-    <t>Thêm món ăn</t>
-  </si>
-  <si>
-    <t>Cập nhật danh sách món ăn mới với Mã Món Ăn, Tên Món Ăn và Đơn Giá</t>
-  </si>
-  <si>
-    <t>1. Nhập Tên Món Ăn &gt; Đơn Giá                                  2.Click chọn button Thêm</t>
+      <t>Tên Món Ăn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           2. Không nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   3.Click chọn button Thêm</t>
+    </r>
   </si>
   <si>
     <r>
@@ -563,6 +461,25 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 2. Không nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Tên Món Ăn</t>
     </r>
     <r>
@@ -572,76 +489,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">           2. Không nhập </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đơn Giá</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   3.Click chọn button Thêm</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Vui lòng nhập chính xác Đơn Giá"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Nhập </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đơn Giá</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                 2. Không nhập </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tên Món Ăn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">  3.Click chọn button Thêm</t>
     </r>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Vui lòng nhập chính xác Tên Món Ăn"</t>
   </si>
   <si>
     <t>TC19</t>
@@ -684,20 +533,333 @@
     <t>TC20</t>
   </si>
   <si>
-    <t>Sửa món ăn</t>
-  </si>
-  <si>
     <t>1.Click chọn dòng Món Ăn cần Sửa                                   2.Chỉnh sửa Tên Món Ăn, Đơn giá     
 3.Click button Sửa</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Click chọn dòng Món Ăn cần Sửa                                   2.1Chỉ Chỉnh sửa Đơn Giá hoặc Tên Món Ăn              2.2 Để trống Tên Món Ăn hoặc Đơn Giá    
+    <t>4.Kiểm tra chức năng quản lí hóa đơn</t>
+  </si>
+  <si>
+    <t>5.Kiểm tra chức năng quản lí món ăn ( thực đơn )</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Xem hóa đơn</t>
+  </si>
+  <si>
+    <t>1.Click chọn dòng Hóa Đơn cần xem</t>
+  </si>
+  <si>
+    <t>Hiện thị thông tin đã lưu vào cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>5.Kiểm tra chức năng gọi món</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>1.Chọn Mã bàn còn trống                           2.Click chọn button Tạo          3.Chọn Món ăn                          4. Chọn Sô lượng                    5. Click chọn button Thêm</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>1.Chọn Bàn đã tạo                           2.Click chọn dòng món ăn cần xóa                          3.Chọn Món ăn                                            4. Click chọn button Thêm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xóa dòng Món Ăn đã chọn.Cập nhật lại csdl</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>1.Chọn Bàn đã tạo                          2.Click chọn button Thanh Toán                                       3.Click button Yes</t>
+  </si>
+  <si>
+    <t>Thanh toán với bàn không có món ăn vẫn bị lưu vào cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Quản lí nhà hàng</t>
+  </si>
+  <si>
+    <t>16/11/2019</t>
+  </si>
+  <si>
+    <t>QLNH-01</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Mô tả test case</t>
+  </si>
+  <si>
+    <t>Các bước tiến hành test case</t>
+  </si>
+  <si>
+    <t>Kết quả mong muốn</t>
+  </si>
+  <si>
+    <t>Ngày test</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Số test cases</t>
+  </si>
+  <si>
+    <t>Vinh Hoai</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Thêm món ăn nhập trùng tên</t>
+  </si>
+  <si>
+    <t>Vẫn cập nhật mới với tên món và đơn giá cũ. Thông tin vẫn được lưu vào CSDL</t>
+  </si>
+  <si>
+    <t>Nên show thông báo món ăn đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Bàn đã được đặt vào lúc dd/mm/yyyy hh:mm:ss của khách hàng X bạn có muốn tạo hóa đơn"                                             Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>1.Chọn Mã bàn đã đặt                           2.Click chọn button Tạo         3.Click button Yes         4.Chọn Món ăn                          5.Chọn Sô lượng                    6.Click chọn button Thêm</t>
+  </si>
+  <si>
+    <t>Thanh Toán Món với bàn đã có món ăn</t>
+  </si>
+  <si>
+    <t>Thanh Toán Món với bàn không có món ăn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị thông báo "Bạn Muốn Thanh Toán Hóa Đơn của bàn x"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">             Chấp nhận thanh toán                     Vẫn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị "Thanh Toán Thành Công" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>và cập nhật Tình Trạng Bàn ở Chức Năng Quản Lí Bàn thành Trống</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hiển thị thông báo "Bạn Muốn Thanh Toán Hóa Đơn của bàn x"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">             Chấp nhận thanh toán                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hiển thị"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thanh Toán Thành Công</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>và cập nhật Tình Trạng Bàn ở Chức Năng Quản Lí Bàn thành Trống</t>
+    </r>
+  </si>
+  <si>
+    <t>Xóa Món Ăn đã gọi</t>
+  </si>
+  <si>
+    <t>Gọi Món Ăn với bàn đã được đặt trước</t>
+  </si>
+  <si>
+    <t>Gọi Món Ăn với bàn trống có sẵn</t>
+  </si>
+  <si>
+    <t>Gọi Món Ăn với bàn đã được lưu thông tin đặt bàn cũ và mã HĐ mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vẫn hiển thị thông báo với thông tin đặt trước đã được lưu trữ với :          Hiển thị thông báo "Bàn đã được đặt vào lúc dd/mm/yyyy hh:mm:ss của khách hàng X bạn có muốn tạo hóa đơn"                                             Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa món ăn </t>
+  </si>
+  <si>
+    <t>Thêm món ăn mới</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thêm bàn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xóa bàn</t>
+    </r>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click chọn dòng Món Ăn cần Sửa                                   2.Chỉnh sửa Đơn Giá
 3.Click button Sửa
 </t>
   </si>
   <si>
-    <r>
-      <t>Hiển thị thông báo "Vui lòng nhập chính xác đơn giá"(hoặc: "Vui lòng nhập chính xác tên món ăn")</t>
+    <t xml:space="preserve">1.Click chọn dòng Món Ăn cần Sửa                                   2.Chỉnh sửa Tên Món Ăn
+3.Click button Sửa
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Hiển thị thông báo "Vui lòng nhập chính xác tên món ăn")</t>
     </r>
     <r>
       <rPr>
@@ -712,10 +874,738 @@
     </r>
   </si>
   <si>
-    <t>1. Click chọn dòng Món Ăn có sẵn                                      2. Click chọn button Thêm</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo "Món ăn đã tồn tại, nhấn sửa để cập nhật thêm"</t>
+    <t xml:space="preserve">Hiển thị thông báo "Vui lòng nhập chính xác đơn giá")
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Mở chức năng QuanLiNhanVien           2.Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>họ tên NV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Lê Văn A 2.Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quốc tịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Việt Nam
+2.Chọn ngày sinh , giới tính, trình độ, chức vụ cho nhân viên
+3.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Mở chức năng QuanLiNhanVien           2.Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>họ tên NV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Lê Văn A 2.Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quốc tịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: ""
+2.Chọn ngày sinh , giới tính, trình độ, chức vụ cho nhân viên
+3.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Mở chức năng QuanLiNhanVien           2.Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>họ tên NV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : "" 2.Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quốc tịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : "Lào"
+2.Chọn ngày sinh , giới tính, trình độ, chức vụ cho nhân viên
+3.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập quốc tịch nhân viên"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập tên nhân viên"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> danh sách Nhân viên được cập nhật mới.Lưu toàn bộ thông tin nhân viên đã nhập vào ds nhân viên và csdl(Mã nhân viên tăng theo stt)                      Tạo tài khoản mới nhân viên có dạng : "tên" và "mãnhânviên"        vd: a4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thông tin của nhân viên đã được sửa đổi. Lưu toàn bộ thông tin mới nhân viên đã sửa vào ds nhân viên và cập nhật lại csdl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập tên nhân viên"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiển thị thông báo "Bạn có chắc chắn muốn xóa"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy nhân viên chọn đã được xóa .Danh sách đã được cập nhật mới</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Không nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 2. Không nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên Món Ăn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật danh sách món ăn mới với Mã Món Ăn, Tên Món Ăn và Đơn Giá</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập chính xác Đơn Giá"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hiển thị thông báo "Vui lòng nhập chính xác Tên Món Ăn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên Món Ăn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          2. Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                  2.Click chọn button Thêm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập trùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên Món Ăn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           2. Nhập trùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn Giá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          3.Click chọn button Thêm       (1. Nhập "Khoai Tây Chiên"          2. Nhập "20000"          3.Click chọn button Thêm)</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Nhập đúng sức chứa
+2.Chọn ccb tình trạng
+3.Click chọn button Thêm</t>
+  </si>
+  <si>
+    <t>1.Mở ứng dụng
+2.Click chọn Nhân Viên
+3.Nhập username: bac5
+4.Nhập password:123
+5.Click chọn button Đăng nhập</t>
+  </si>
+  <si>
+    <t>1.Mở ứng dụng
+2.Click chọn Nhân Viên
+3.Nhập username: ha1
+4.Nhập password: hello
+5.Click chọn button Đăng nhập</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập thông tin tài khoản"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập tên tài khoản"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập mật khẩu"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Tài khoản không tồn tại! Vui lòng thử lại"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Mật khẩu không tồn tại! Vui lòng thử lại"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Đăng nhập thành công. Load form Menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Đặt bàn thành công"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập số người chính xác"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng đúng số điện thoại"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập tên chính xác"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập thông tin khách hàng"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -726,7 +1616,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -862,6 +1752,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1388,7 +2299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1440,9 +2351,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,9 +2523,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1632,9 +2537,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1649,7 +2551,6 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1671,12 +2572,6 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1686,160 +2581,227 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4441,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4467,7 +5429,7 @@
     <row r="2" spans="1:8" ht="22.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -4478,9 +5440,9 @@
     <row r="3" spans="1:8">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="51">
+        <v>33</v>
+      </c>
+      <c r="C3" s="50">
         <v>1.2</v>
       </c>
       <c r="D3" s="18"/>
@@ -4491,10 +5453,10 @@
     <row r="4" spans="1:8">
       <c r="A4" s="15"/>
       <c r="B4" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="15"/>
@@ -4513,26 +5475,26 @@
     <row r="6" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="120"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+        <v>35</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="129"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
@@ -4556,173 +5518,188 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" ht="26.4">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="24" customFormat="1" ht="26.4">
+      <c r="G11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="24" customFormat="1">
       <c r="B12" s="26">
-        <v>39293</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="61" t="s">
+        <v>43779</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:8" s="24" customFormat="1">
+      <c r="B13" s="62">
+        <v>43782</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="24" customFormat="1" ht="26.4">
-      <c r="B13" s="63">
-        <v>39295</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" ht="26.4">
-      <c r="B14" s="26">
-        <v>39311</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>47</v>
-      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" s="24" customFormat="1">
+      <c r="B14" s="62">
+        <v>43783</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" s="25" customFormat="1" ht="13.2">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" s="24" customFormat="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="35"/>
+      <c r="B15" s="26">
+        <v>43779</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" s="25" customFormat="1" ht="13.2">
+      <c r="B16" s="26">
+        <v>43785</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:8" s="24" customFormat="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="2:8" s="24" customFormat="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:8" s="24" customFormat="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:8" s="24" customFormat="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="2:8" s="24" customFormat="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:8" s="24" customFormat="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="2:8" s="24" customFormat="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" s="24" customFormat="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4735,6 +5712,9 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v1/0&amp;R&amp;"Tahoma,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="C12:C13" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4743,995 +5723,1804 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="104" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.77734375" style="66" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="66" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="105" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="66"/>
+    <col min="1" max="1" width="15.77734375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="100" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="65" customWidth="1"/>
+    <col min="4" max="6" width="10.77734375" style="65" customWidth="1"/>
+    <col min="7" max="7" width="0.5546875" style="65" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="7" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="101" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="65" customFormat="1">
-      <c r="A1" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" s="65" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="64"/>
-    </row>
-    <row r="3" spans="1:11" s="65" customFormat="1" ht="31.2">
-      <c r="A3" s="70" t="s">
+    <row r="1" spans="1:11" s="64" customFormat="1">
+      <c r="A1" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="63"/>
+    </row>
+    <row r="2" spans="1:11" s="64" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A2" s="63"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" s="64" customFormat="1" ht="31.2">
+      <c r="A3" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="159" t="str">
+        <f>Cover!C6</f>
+        <v>Quản lí nhà hàng</v>
+      </c>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:11" s="64" customFormat="1" ht="31.2">
+      <c r="A4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" s="74" customFormat="1" ht="31.2">
+      <c r="A5" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:11" s="64" customFormat="1">
+      <c r="A6" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="76">
+        <f>COUNTIF(I12:I57,"Pass")-7</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="78">
+        <f>COUNTIF(I10:I773,"Pending")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="1:11" s="64" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A7" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="81">
+        <f>COUNTIF(I12:I57,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="83">
+        <f>COUNTA(A12:A57) -7</f>
+        <v>39</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="63"/>
+    </row>
+    <row r="8" spans="1:11" s="64" customFormat="1">
+      <c r="A8" s="153"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="9" spans="1:11" s="64" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A9" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="142" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="1:11" s="87" customFormat="1">
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="86"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="165"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
+    </row>
+    <row r="12" spans="1:11" s="88" customFormat="1">
+      <c r="A12" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
+    </row>
+    <row r="13" spans="1:11" s="88" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A13" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="102">
+        <v>43779</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="1:11" s="88" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A14" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="102">
+        <v>43779</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="91"/>
+    </row>
+    <row r="15" spans="1:11" s="88" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A15" s="183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="135" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="102">
+        <v>43779</v>
+      </c>
+      <c r="I15" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="91"/>
+    </row>
+    <row r="16" spans="1:11" s="88" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A16" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="135" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="91"/>
+    </row>
+    <row r="17" spans="1:14" s="88" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A17" s="183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="D17" s="135" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="91"/>
+    </row>
+    <row r="18" spans="1:14" s="88" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A18" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I18" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="91"/>
+    </row>
+    <row r="19" spans="1:14" s="88" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A19" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="167" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="91"/>
+    </row>
+    <row r="20" spans="1:14" s="88" customFormat="1">
+      <c r="A20" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="138"/>
+    </row>
+    <row r="21" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A21" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4" spans="1:11" s="65" customFormat="1" ht="31.2">
-      <c r="A4" s="72" t="s">
+      <c r="C21" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" s="75" customFormat="1" ht="31.2">
-      <c r="A5" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="74"/>
-    </row>
-    <row r="6" spans="1:11" s="65" customFormat="1">
-      <c r="A6" s="76" t="s">
+      <c r="D21" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="H21" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I21" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="93"/>
+    </row>
+    <row r="22" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A22" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="H22" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="93"/>
+    </row>
+    <row r="23" spans="1:14" s="95" customFormat="1" ht="109.2" outlineLevel="1">
+      <c r="A23" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="H23" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+    </row>
+    <row r="24" spans="1:14" s="95" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A24" s="183" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="H24" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="93"/>
+    </row>
+    <row r="25" spans="1:14" s="95" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A25" s="183" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="H25" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="93"/>
+    </row>
+    <row r="26" spans="1:14" s="88" customFormat="1" outlineLevel="1">
+      <c r="A26" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="138"/>
+    </row>
+    <row r="27" spans="1:14" s="95" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A27" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="77">
-        <f>COUNTIF(I12:I39,"Pass")</f>
-        <v>23</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="B27" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="H27" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I27" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="93"/>
+    </row>
+    <row r="28" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A28" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="79">
-        <f>COUNTIF(I10:I766,"Pending")</f>
+      <c r="B28" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="H28" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I28" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="93"/>
+    </row>
+    <row r="29" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A29" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="H29" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I29" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="93"/>
+    </row>
+    <row r="30" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" s="65" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A7" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="82">
-        <f>COUNTIF(I12:I39,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="83" t="s">
+      <c r="B30" s="181" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="H30" s="105">
+        <v>43779</v>
+      </c>
+      <c r="I30" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="84">
-        <f>COUNTA(A12:A47) -15</f>
-        <v>10</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" s="65" customFormat="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" s="65" customFormat="1">
-      <c r="A9" s="145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="148" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="64"/>
-    </row>
-    <row r="10" spans="1:11" s="88" customFormat="1">
-      <c r="A10" s="137"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="87"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
-    </row>
-    <row r="12" spans="1:11" s="89" customFormat="1">
-      <c r="A12" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="126"/>
-    </row>
-    <row r="13" spans="1:11" s="89" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A13" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="106">
+      <c r="J30" s="93"/>
+    </row>
+    <row r="31" spans="1:14" s="95" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A31" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="H31" s="105">
         <v>43779</v>
       </c>
-      <c r="I13" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="93"/>
-    </row>
-    <row r="14" spans="1:11" s="89" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A14" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="110" t="s">
+      <c r="I31" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="93"/>
+    </row>
+    <row r="32" spans="1:14" s="95" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A32" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="106">
+      <c r="C32" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="H32" s="105">
         <v>43779</v>
       </c>
-      <c r="I14" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="93"/>
-    </row>
-    <row r="15" spans="1:11" s="89" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A15" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="106">
-        <v>43779</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="93"/>
-    </row>
-    <row r="16" spans="1:11" s="89" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A16" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I16" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="93"/>
-    </row>
-    <row r="17" spans="1:14" s="89" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A17" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="94" t="s">
+      <c r="I32" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="93"/>
+    </row>
+    <row r="33" spans="1:10" s="88" customFormat="1" outlineLevel="1">
+      <c r="A33" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="93"/>
-    </row>
-    <row r="18" spans="1:14" s="89" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A18" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="123" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="93"/>
-    </row>
-    <row r="19" spans="1:14" s="89" customFormat="1">
-      <c r="A19" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
-    </row>
-    <row r="20" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A20" s="112" t="s">
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="138"/>
+    </row>
+    <row r="34" spans="1:10" s="95" customFormat="1" ht="127.8" customHeight="1" outlineLevel="1">
+      <c r="A34" s="182" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="H34" s="105">
+        <v>43782</v>
+      </c>
+      <c r="I34" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="93"/>
+    </row>
+    <row r="35" spans="1:10" s="95" customFormat="1" ht="128.4" customHeight="1" outlineLevel="1">
+      <c r="A35" s="182" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="H35" s="105">
+        <v>43782</v>
+      </c>
+      <c r="I35" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="93"/>
+    </row>
+    <row r="36" spans="1:10" s="95" customFormat="1" ht="124.8" outlineLevel="1">
+      <c r="A36" s="182" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="H36" s="105">
+        <v>43782</v>
+      </c>
+      <c r="I36" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="93"/>
+    </row>
+    <row r="37" spans="1:10" s="95" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A37" s="182" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="H37" s="105">
+        <v>43782</v>
+      </c>
+      <c r="I37" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="93"/>
+    </row>
+    <row r="38" spans="1:10" s="88" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A38" s="182" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="105">
+        <v>43782</v>
+      </c>
+      <c r="I38" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="93"/>
+    </row>
+    <row r="39" spans="1:10" s="95" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A39" s="182" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="H39" s="105">
+        <v>43782</v>
+      </c>
+      <c r="I39" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="93"/>
+    </row>
+    <row r="40" spans="1:10" s="95" customFormat="1" outlineLevel="1">
+      <c r="A40" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="138"/>
+    </row>
+    <row r="41" spans="1:10" s="88" customFormat="1" ht="46.8">
+      <c r="A41" s="182" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="105">
+        <v>43783</v>
+      </c>
+      <c r="I41" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="93"/>
+    </row>
+    <row r="42" spans="1:10" s="88" customFormat="1" ht="46.8">
+      <c r="A42" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="105">
+        <v>43783</v>
+      </c>
+      <c r="I42" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="113"/>
+    </row>
+    <row r="43" spans="1:10" s="88" customFormat="1" ht="46.8">
+      <c r="A43" s="182" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="111">
+        <v>43783</v>
+      </c>
+      <c r="I43" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="113"/>
+    </row>
+    <row r="44" spans="1:10" s="88" customFormat="1" ht="46.8">
+      <c r="A44" s="182" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="111">
+        <v>43783</v>
+      </c>
+      <c r="I44" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="113"/>
+    </row>
+    <row r="45" spans="1:10" s="88" customFormat="1" ht="101.4" customHeight="1">
+      <c r="A45" s="182" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I45" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="H20" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I20" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="95"/>
-    </row>
-    <row r="21" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A21" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="97" t="s">
+      <c r="J45" s="93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="88" customFormat="1" ht="89.4" customHeight="1">
+      <c r="A46" s="182" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="H21" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I21" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="95"/>
-    </row>
-    <row r="22" spans="1:14" s="98" customFormat="1" ht="109.2" outlineLevel="1">
-      <c r="A22" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="116" t="s">
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="178">
+        <v>43783</v>
+      </c>
+      <c r="I46" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="180"/>
+    </row>
+    <row r="47" spans="1:10" s="88" customFormat="1" ht="72" customHeight="1">
+      <c r="A47" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="105">
+        <v>43783</v>
+      </c>
+      <c r="I47" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="93"/>
+    </row>
+    <row r="48" spans="1:10" s="88" customFormat="1" ht="78">
+      <c r="A48" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="105">
+        <v>43783</v>
+      </c>
+      <c r="I48" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="93"/>
+    </row>
+    <row r="49" spans="1:10" s="95" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A49" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="H22" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I22" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-    </row>
-    <row r="23" spans="1:14" s="98" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A23" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="H23" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I23" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="95"/>
-    </row>
-    <row r="24" spans="1:14" s="98" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A24" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="H24" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I24" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="95"/>
-    </row>
-    <row r="25" spans="1:14" s="89" customFormat="1" outlineLevel="1">
-      <c r="A25" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
-    </row>
-    <row r="26" spans="1:14" s="98" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A26" s="154" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="159" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="158" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="H26" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I26" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="95"/>
-    </row>
-    <row r="27" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="97" t="s">
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="H49" s="105">
+        <v>43783</v>
+      </c>
+      <c r="I49" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="93"/>
+    </row>
+    <row r="50" spans="1:10" s="95" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A50" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
+    </row>
+    <row r="51" spans="1:10" ht="31.2">
+      <c r="A51" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="H27" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I27" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="95"/>
-    </row>
-    <row r="28" spans="1:14" s="98" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A28" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="113" t="s">
+      <c r="C51" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="D51" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I51" s="187" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="93"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="H28" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I28" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="95"/>
-    </row>
-    <row r="29" spans="1:14" s="98" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A29" s="154" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="97" t="s">
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
+    </row>
+    <row r="53" spans="1:10" ht="97.2" customHeight="1">
+      <c r="A53" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="156" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="H29" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I29" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="95"/>
-    </row>
-    <row r="30" spans="1:14" s="98" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
-      <c r="A30" s="162"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="97" t="s">
+      <c r="D53" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I53" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="93"/>
+    </row>
+    <row r="54" spans="1:10" ht="124.8" customHeight="1">
+      <c r="A54" s="184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="135" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I54" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="93"/>
+    </row>
+    <row r="55" spans="1:10" ht="78" customHeight="1">
+      <c r="A55" s="184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I55" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="93"/>
+    </row>
+    <row r="56" spans="1:10" ht="105.6" customHeight="1">
+      <c r="A56" s="184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="H30" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I30" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="95"/>
-    </row>
-    <row r="31" spans="1:14" s="89" customFormat="1" outlineLevel="1">
-      <c r="A31" s="124" t="s">
+      <c r="D56" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="126"/>
-    </row>
-    <row r="32" spans="1:14" s="98" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A32" s="154" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="159" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="97" t="s">
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="111">
+        <v>43785</v>
+      </c>
+      <c r="I56" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="113"/>
+    </row>
+    <row r="57" spans="1:10" s="115" customFormat="1" ht="108.6" customHeight="1">
+      <c r="A57" s="184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="169" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I57" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="93"/>
+    </row>
+    <row r="58" spans="1:10" s="115" customFormat="1" ht="62.4">
+      <c r="A58" s="183" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="169" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="105">
+        <v>43785</v>
+      </c>
+      <c r="I58" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="158" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="H32" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I32" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="95"/>
-    </row>
-    <row r="33" spans="1:10" s="98" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A33" s="162"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="H33" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I33" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="95"/>
-    </row>
-    <row r="34" spans="1:10" s="98" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A34" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="159" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="H34" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I34" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="95"/>
-    </row>
-    <row r="35" spans="1:10" s="98" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A35" s="162"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="H35" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I35" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="95"/>
-    </row>
-    <row r="36" spans="1:10" s="89" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A36" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I36" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="95"/>
-    </row>
-    <row r="37" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A37" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="126"/>
-    </row>
-    <row r="38" spans="1:10" s="98" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A38" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="159" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="158" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="H38" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I38" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="95"/>
-    </row>
-    <row r="39" spans="1:10" s="89" customFormat="1" ht="46.8">
-      <c r="A39" s="155"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="163" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="165">
-        <v>43779</v>
-      </c>
-      <c r="I39" s="166" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="167"/>
-    </row>
-    <row r="40" spans="1:10" s="89" customFormat="1" ht="46.8">
-      <c r="A40" s="155"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="163" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="165">
-        <v>43779</v>
-      </c>
-      <c r="I40" s="166" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="95"/>
-    </row>
-    <row r="41" spans="1:10" s="89" customFormat="1" ht="46.8">
-      <c r="A41" s="162"/>
-      <c r="B41" s="161"/>
-      <c r="C41" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="163" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="165">
-        <v>43779</v>
-      </c>
-      <c r="I41" s="166" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="95"/>
-    </row>
-    <row r="42" spans="1:10" s="89" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A42" s="154" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="159" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I42" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="95"/>
-    </row>
-    <row r="43" spans="1:10" s="89" customFormat="1" ht="93.6" customHeight="1">
-      <c r="A43" s="162"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I43" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="95"/>
-    </row>
-    <row r="44" spans="1:10" s="89" customFormat="1" ht="62.4">
-      <c r="A44" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="121" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="109">
-        <v>43779</v>
-      </c>
-      <c r="I44" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="95"/>
-    </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A45" s="124"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="126"/>
-    </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" outlineLevel="1">
-      <c r="A46" s="90"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="95"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="90"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="95"/>
+    </row>
+    <row r="59" spans="1:10" s="115" customFormat="1">
+      <c r="A59" s="171"/>
+      <c r="B59" s="172"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="124"/>
+    </row>
+    <row r="60" spans="1:10" s="115" customFormat="1">
+      <c r="A60" s="171"/>
+      <c r="B60" s="172"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="124"/>
+    </row>
+    <row r="61" spans="1:10" s="115" customFormat="1">
+      <c r="A61" s="125"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="170"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="124"/>
+    </row>
+    <row r="62" spans="1:10" s="115" customFormat="1">
+      <c r="B62" s="116"/>
+    </row>
+    <row r="63" spans="1:10" s="115" customFormat="1">
+      <c r="B63" s="116"/>
+    </row>
+    <row r="64" spans="1:10" s="115" customFormat="1">
+      <c r="B64" s="116"/>
+    </row>
+    <row r="65" spans="2:2" s="115" customFormat="1">
+      <c r="B65" s="116"/>
+    </row>
+    <row r="66" spans="2:2" s="115" customFormat="1">
+      <c r="B66" s="116"/>
+    </row>
+    <row r="67" spans="2:2" s="115" customFormat="1">
+      <c r="B67" s="116"/>
+    </row>
+    <row r="68" spans="2:2" s="115" customFormat="1">
+      <c r="B68" s="116"/>
+    </row>
+    <row r="69" spans="2:2" s="115" customFormat="1">
+      <c r="B69" s="116"/>
+    </row>
+    <row r="70" spans="2:2" s="115" customFormat="1">
+      <c r="B70" s="116"/>
+    </row>
+    <row r="71" spans="2:2" s="115" customFormat="1">
+      <c r="B71" s="116"/>
+    </row>
+    <row r="72" spans="2:2" s="115" customFormat="1">
+      <c r="B72" s="116"/>
+    </row>
+    <row r="73" spans="2:2" s="115" customFormat="1">
+      <c r="B73" s="116"/>
+    </row>
+    <row r="74" spans="2:2" s="115" customFormat="1">
+      <c r="B74" s="116"/>
+    </row>
+    <row r="75" spans="2:2" s="115" customFormat="1">
+      <c r="B75" s="116"/>
+    </row>
+    <row r="76" spans="2:2" s="115" customFormat="1">
+      <c r="B76" s="116"/>
+    </row>
+    <row r="77" spans="2:2" s="115" customFormat="1">
+      <c r="B77" s="116"/>
+    </row>
+    <row r="78" spans="2:2" s="115" customFormat="1">
+      <c r="B78" s="116"/>
+    </row>
+    <row r="79" spans="2:2" s="115" customFormat="1">
+      <c r="B79" s="116"/>
+    </row>
+    <row r="80" spans="2:2" s="115" customFormat="1">
+      <c r="B80" s="116"/>
+    </row>
+    <row r="81" spans="2:2" s="115" customFormat="1">
+      <c r="B81" s="116"/>
+    </row>
+    <row r="82" spans="2:2" s="115" customFormat="1">
+      <c r="B82" s="116"/>
+    </row>
+    <row r="83" spans="2:2" s="115" customFormat="1">
+      <c r="B83" s="116"/>
+    </row>
+    <row r="84" spans="2:2" s="115" customFormat="1">
+      <c r="B84" s="116"/>
+    </row>
+    <row r="85" spans="2:2" s="115" customFormat="1">
+      <c r="B85" s="116"/>
+    </row>
+    <row r="86" spans="2:2" s="115" customFormat="1">
+      <c r="B86" s="116"/>
+    </row>
+    <row r="87" spans="2:2" s="115" customFormat="1">
+      <c r="B87" s="116"/>
+    </row>
+    <row r="88" spans="2:2" s="115" customFormat="1">
+      <c r="B88" s="116"/>
+    </row>
+    <row r="89" spans="2:2" s="115" customFormat="1">
+      <c r="B89" s="116"/>
+    </row>
+    <row r="90" spans="2:2" s="115" customFormat="1">
+      <c r="B90" s="116"/>
+    </row>
+    <row r="91" spans="2:2" s="115" customFormat="1">
+      <c r="B91" s="116"/>
+    </row>
+    <row r="92" spans="2:2" s="115" customFormat="1">
+      <c r="B92" s="116"/>
+    </row>
+    <row r="93" spans="2:2" s="115" customFormat="1">
+      <c r="B93" s="116"/>
+    </row>
+    <row r="94" spans="2:2" s="115" customFormat="1">
+      <c r="B94" s="116"/>
+    </row>
+    <row r="95" spans="2:2" s="115" customFormat="1">
+      <c r="B95" s="116"/>
+    </row>
+    <row r="96" spans="2:2" s="115" customFormat="1">
+      <c r="B96" s="116"/>
+    </row>
+    <row r="97" spans="2:10" s="115" customFormat="1">
+      <c r="B97" s="116"/>
+    </row>
+    <row r="98" spans="2:10" s="115" customFormat="1">
+      <c r="B98" s="116"/>
+    </row>
+    <row r="99" spans="2:10" s="115" customFormat="1">
+      <c r="B99" s="116"/>
+    </row>
+    <row r="100" spans="2:10" s="115" customFormat="1">
+      <c r="B100" s="116"/>
+    </row>
+    <row r="101" spans="2:10" s="115" customFormat="1">
+      <c r="B101" s="116"/>
+    </row>
+    <row r="102" spans="2:10" s="115" customFormat="1">
+      <c r="B102" s="116"/>
+    </row>
+    <row r="103" spans="2:10" s="115" customFormat="1">
+      <c r="B103" s="116"/>
+    </row>
+    <row r="104" spans="2:10" s="115" customFormat="1">
+      <c r="B104" s="116"/>
+    </row>
+    <row r="105" spans="2:10" s="115" customFormat="1">
+      <c r="B105" s="116"/>
+    </row>
+    <row r="106" spans="2:10" s="115" customFormat="1">
+      <c r="B106" s="116"/>
+    </row>
+    <row r="107" spans="2:10" s="115" customFormat="1">
+      <c r="B107" s="116"/>
+    </row>
+    <row r="108" spans="2:10" s="115" customFormat="1">
+      <c r="B108" s="116"/>
+    </row>
+    <row r="109" spans="2:10" s="115" customFormat="1">
+      <c r="B109" s="116"/>
+    </row>
+    <row r="110" spans="2:10" s="115" customFormat="1">
+      <c r="B110" s="116"/>
+    </row>
+    <row r="111" spans="2:10" s="115" customFormat="1">
+      <c r="B111" s="116"/>
+    </row>
+    <row r="112" spans="2:10" s="115" customFormat="1">
+      <c r="B112" s="116"/>
+      <c r="I112" s="120"/>
+      <c r="J112" s="120"/>
+    </row>
+    <row r="113" spans="2:10" s="115" customFormat="1">
+      <c r="B113" s="116"/>
+      <c r="I113" s="101"/>
+      <c r="J113" s="101"/>
+    </row>
+    <row r="114" spans="2:10" s="115" customFormat="1">
+      <c r="B114" s="116"/>
+      <c r="I114" s="101"/>
+      <c r="J114" s="101"/>
+    </row>
+    <row r="115" spans="2:10" s="115" customFormat="1">
+      <c r="B115" s="116"/>
+      <c r="I115" s="101"/>
+      <c r="J115" s="101"/>
+    </row>
+    <row r="116" spans="2:10" s="115" customFormat="1">
+      <c r="B116" s="116"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="101"/>
+    </row>
+    <row r="117" spans="2:10" s="115" customFormat="1">
+      <c r="B117" s="116"/>
+      <c r="I117" s="101"/>
+      <c r="J117" s="101"/>
+    </row>
+    <row r="118" spans="2:10" s="115" customFormat="1">
+      <c r="B118" s="116"/>
+      <c r="I118" s="101"/>
+      <c r="J118" s="101"/>
+    </row>
+    <row r="119" spans="2:10" s="115" customFormat="1">
+      <c r="B119" s="116"/>
+      <c r="I119" s="101"/>
+      <c r="J119" s="101"/>
+    </row>
+    <row r="120" spans="2:10" s="115" customFormat="1">
+      <c r="B120" s="116"/>
+      <c r="I120" s="101"/>
+      <c r="J120" s="101"/>
+    </row>
+    <row r="121" spans="2:10" s="115" customFormat="1">
+      <c r="B121" s="116"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="101"/>
+    </row>
+    <row r="122" spans="2:10" s="115" customFormat="1">
+      <c r="B122" s="116"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+    </row>
+    <row r="123" spans="2:10" s="115" customFormat="1">
+      <c r="B123" s="116"/>
+      <c r="I123" s="101"/>
+      <c r="J123" s="101"/>
+    </row>
+    <row r="124" spans="2:10" s="115" customFormat="1">
+      <c r="B124" s="116"/>
+      <c r="I124" s="101"/>
+      <c r="J124" s="101"/>
+    </row>
+    <row r="125" spans="2:10" s="115" customFormat="1">
+      <c r="B125" s="116"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101"/>
+    </row>
+    <row r="126" spans="2:10" s="115" customFormat="1">
+      <c r="B126" s="116"/>
+      <c r="I126" s="101"/>
+      <c r="J126" s="101"/>
+    </row>
+    <row r="127" spans="2:10" s="115" customFormat="1">
+      <c r="B127" s="116"/>
+      <c r="I127" s="101"/>
+      <c r="J127" s="101"/>
+    </row>
+    <row r="128" spans="2:10" s="115" customFormat="1">
+      <c r="B128" s="116"/>
+      <c r="I128" s="101"/>
+      <c r="J128" s="101"/>
+    </row>
+    <row r="129" spans="2:10" s="115" customFormat="1">
+      <c r="B129" s="116"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+    </row>
+    <row r="130" spans="2:10" s="115" customFormat="1">
+      <c r="B130" s="116"/>
+      <c r="I130" s="101"/>
+      <c r="J130" s="101"/>
+    </row>
+    <row r="131" spans="2:10" s="115" customFormat="1">
+      <c r="B131" s="116"/>
+      <c r="I131" s="101"/>
+      <c r="J131" s="101"/>
+    </row>
+    <row r="132" spans="2:10" s="115" customFormat="1">
+      <c r="B132" s="116"/>
+      <c r="I132" s="101"/>
+      <c r="J132" s="101"/>
+    </row>
+    <row r="133" spans="2:10" s="115" customFormat="1">
+      <c r="B133" s="116"/>
+      <c r="I133" s="101"/>
+      <c r="J133" s="101"/>
+    </row>
+    <row r="134" spans="2:10" s="115" customFormat="1">
+      <c r="B134" s="116"/>
+      <c r="I134" s="101"/>
+      <c r="J134" s="101"/>
+    </row>
+    <row r="135" spans="2:10" s="115" customFormat="1">
+      <c r="B135" s="116"/>
+      <c r="I135" s="101"/>
+      <c r="J135" s="101"/>
+    </row>
+    <row r="136" spans="2:10" s="115" customFormat="1">
+      <c r="B136" s="116"/>
+      <c r="I136" s="101"/>
+      <c r="J136" s="101"/>
+    </row>
+    <row r="137" spans="2:10" s="115" customFormat="1">
+      <c r="B137" s="116"/>
+      <c r="I137" s="101"/>
+      <c r="J137" s="101"/>
+    </row>
+    <row r="138" spans="2:10" s="115" customFormat="1">
+      <c r="B138" s="116"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="101"/>
+    </row>
+    <row r="139" spans="2:10" s="115" customFormat="1">
+      <c r="B139" s="116"/>
+      <c r="I139" s="101"/>
+      <c r="J139" s="101"/>
+    </row>
+    <row r="140" spans="2:10" s="115" customFormat="1">
+      <c r="B140" s="116"/>
+      <c r="I140" s="101"/>
+      <c r="J140" s="101"/>
+    </row>
+    <row r="141" spans="2:10" s="115" customFormat="1">
+      <c r="B141" s="116"/>
+      <c r="I141" s="101"/>
+      <c r="J141" s="101"/>
+    </row>
+    <row r="142" spans="2:10" s="115" customFormat="1">
+      <c r="B142" s="116"/>
+      <c r="I142" s="101"/>
+      <c r="J142" s="101"/>
+    </row>
+    <row r="143" spans="2:10" s="115" customFormat="1">
+      <c r="B143" s="116"/>
+      <c r="I143" s="101"/>
+      <c r="J143" s="101"/>
+    </row>
+    <row r="144" spans="2:10" s="115" customFormat="1">
+      <c r="B144" s="116"/>
+      <c r="I144" s="101"/>
+      <c r="J144" s="101"/>
+    </row>
+    <row r="145" spans="2:10" s="115" customFormat="1">
+      <c r="B145" s="116"/>
+      <c r="I145" s="101"/>
+      <c r="J145" s="101"/>
+    </row>
+    <row r="146" spans="2:10" s="115" customFormat="1">
+      <c r="B146" s="116"/>
+      <c r="I146" s="101"/>
+      <c r="J146" s="101"/>
+    </row>
+    <row r="147" spans="2:10" s="115" customFormat="1">
+      <c r="B147" s="116"/>
+      <c r="I147" s="101"/>
+      <c r="J147" s="101"/>
+    </row>
+    <row r="148" spans="2:10" s="115" customFormat="1">
+      <c r="B148" s="116"/>
+      <c r="I148" s="101"/>
+      <c r="J148" s="101"/>
+    </row>
+    <row r="149" spans="2:10" s="115" customFormat="1">
+      <c r="B149" s="116"/>
+      <c r="I149" s="101"/>
+      <c r="J149" s="101"/>
+    </row>
+    <row r="150" spans="2:10" s="115" customFormat="1">
+      <c r="B150" s="116"/>
+      <c r="I150" s="101"/>
+      <c r="J150" s="101"/>
+    </row>
+    <row r="151" spans="2:10" s="115" customFormat="1">
+      <c r="B151" s="116"/>
+      <c r="I151" s="101"/>
+      <c r="J151" s="101"/>
+    </row>
+    <row r="152" spans="2:10" s="115" customFormat="1">
+      <c r="B152" s="116"/>
+      <c r="I152" s="101"/>
+      <c r="J152" s="101"/>
+    </row>
+    <row r="153" spans="2:10" s="115" customFormat="1">
+      <c r="B153" s="116"/>
+      <c r="I153" s="101"/>
+      <c r="J153" s="101"/>
+    </row>
+    <row r="154" spans="2:10" s="115" customFormat="1">
+      <c r="B154" s="116"/>
+      <c r="I154" s="101"/>
+      <c r="J154" s="101"/>
+    </row>
+    <row r="155" spans="2:10" s="115" customFormat="1">
+      <c r="B155" s="116"/>
+      <c r="I155" s="101"/>
+      <c r="J155" s="101"/>
+    </row>
+    <row r="156" spans="2:10" s="115" customFormat="1">
+      <c r="B156" s="116"/>
+      <c r="I156" s="101"/>
+      <c r="J156" s="101"/>
+    </row>
+    <row r="157" spans="2:10" s="115" customFormat="1">
+      <c r="B157" s="116"/>
+      <c r="I157" s="101"/>
+      <c r="J157" s="101"/>
+    </row>
+    <row r="158" spans="2:10" s="115" customFormat="1">
+      <c r="B158" s="116"/>
+      <c r="I158" s="101"/>
+      <c r="J158" s="101"/>
+    </row>
+    <row r="159" spans="2:10" s="115" customFormat="1">
+      <c r="B159" s="116"/>
+      <c r="I159" s="101"/>
+      <c r="J159" s="101"/>
+    </row>
+    <row r="160" spans="2:10" s="115" customFormat="1">
+      <c r="B160" s="116"/>
+      <c r="I160" s="101"/>
+      <c r="J160" s="101"/>
+    </row>
+    <row r="161" spans="1:10" s="115" customFormat="1">
+      <c r="B161" s="116"/>
+      <c r="I161" s="101"/>
+      <c r="J161" s="101"/>
+    </row>
+    <row r="162" spans="1:10" s="115" customFormat="1">
+      <c r="B162" s="116"/>
+      <c r="I162" s="101"/>
+      <c r="J162" s="101"/>
+    </row>
+    <row r="163" spans="1:10" s="115" customFormat="1">
+      <c r="B163" s="116"/>
+      <c r="I163" s="101"/>
+      <c r="J163" s="101"/>
+    </row>
+    <row r="164" spans="1:10" s="115" customFormat="1">
+      <c r="B164" s="116"/>
+      <c r="I164" s="101"/>
+      <c r="J164" s="101"/>
+    </row>
+    <row r="165" spans="1:10" s="115" customFormat="1">
+      <c r="B165" s="116"/>
+      <c r="I165" s="101"/>
+      <c r="J165" s="101"/>
+    </row>
+    <row r="166" spans="1:10" s="115" customFormat="1">
+      <c r="B166" s="116"/>
+      <c r="I166" s="101"/>
+      <c r="J166" s="101"/>
+    </row>
+    <row r="167" spans="1:10" s="115" customFormat="1">
+      <c r="B167" s="116"/>
+      <c r="I167" s="101"/>
+      <c r="J167" s="101"/>
+    </row>
+    <row r="168" spans="1:10" s="115" customFormat="1">
+      <c r="B168" s="116"/>
+      <c r="I168" s="101"/>
+      <c r="J168" s="101"/>
+    </row>
+    <row r="169" spans="1:10" s="115" customFormat="1">
+      <c r="B169" s="116"/>
+      <c r="I169" s="101"/>
+      <c r="J169" s="101"/>
+    </row>
+    <row r="170" spans="1:10" s="115" customFormat="1">
+      <c r="B170" s="116"/>
+      <c r="I170" s="101"/>
+      <c r="J170" s="101"/>
+    </row>
+    <row r="171" spans="1:10" s="115" customFormat="1">
+      <c r="B171" s="116"/>
+      <c r="I171" s="101"/>
+      <c r="J171" s="101"/>
+    </row>
+    <row r="172" spans="1:10" s="115" customFormat="1">
+      <c r="B172" s="116"/>
+      <c r="I172" s="101"/>
+      <c r="J172" s="101"/>
+    </row>
+    <row r="173" spans="1:10" s="117" customFormat="1">
+      <c r="A173" s="115"/>
+      <c r="B173" s="116"/>
+      <c r="C173" s="115"/>
+      <c r="D173" s="115"/>
+      <c r="E173" s="115"/>
+      <c r="F173" s="115"/>
+      <c r="G173" s="115"/>
+      <c r="H173" s="115"/>
+      <c r="I173" s="101"/>
+      <c r="J173" s="101"/>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="117"/>
+      <c r="B174" s="118"/>
+      <c r="C174" s="117"/>
+      <c r="D174" s="117"/>
+      <c r="E174" s="117"/>
+      <c r="F174" s="117"/>
+      <c r="G174" s="117"/>
+      <c r="H174" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="D40:F40"/>
+  <mergeCells count="70">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -5747,13 +7536,37 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D47:F47"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5767,7 +7580,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5778,7 +7591,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.2">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -5798,9 +7611,9 @@
     </row>
     <row r="3" spans="1:7" ht="13.8">
       <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="128"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -5808,9 +7621,11 @@
     </row>
     <row r="4" spans="1:7" ht="13.8">
       <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="63"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="128">
+        <v>43785</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -5836,81 +7651,81 @@
     </row>
     <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="9"/>
-      <c r="B7" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="52" customFormat="1" ht="13.8">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54">
+      <c r="B7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="51" customFormat="1" ht="13.8">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="55" t="str">
+      <c r="C8" s="54" t="str">
         <f>'Export all carrier choices'!B4</f>
         <v>CR100 - Export to excel</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <f>'Export all carrier choices'!B6</f>
-        <v>23</v>
-      </c>
-      <c r="E8" s="55">
+        <v>30</v>
+      </c>
+      <c r="E8" s="54">
         <f>'Export all carrier choices'!B7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="55">
+        <v>2</v>
+      </c>
+      <c r="F8" s="54">
         <f>'Export all carrier choices'!D6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="55">
         <f>'Export all carrier choices'!D7</f>
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="8"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="58"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="8"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="49">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="48">
         <f>SUM(D6:D9)</f>
-        <v>23</v>
-      </c>
-      <c r="E10" s="49">
+        <v>30</v>
+      </c>
+      <c r="E10" s="48">
         <f>SUM(E6:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="49">
+        <v>2</v>
+      </c>
+      <c r="F10" s="48">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="49">
         <f>SUM(G6:G9)</f>
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8">
@@ -5926,15 +7741,15 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="13">
         <f>(D10+E10)*100/G10</f>
-        <v>230</v>
+        <v>82.051282051282058</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -5942,15 +7757,15 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="13">
         <f>D10*100/G10</f>
-        <v>230</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G13" s="14"/>
     </row>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\KTPM_QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="1716" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="1710" windowWidth="23250" windowHeight="12570" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
   <si>
     <t>TC16</t>
   </si>
@@ -598,9 +598,6 @@
     <t>1.Chọn Bàn đã tạo                          2.Click chọn button Thanh Toán                                       3.Click button Yes</t>
   </si>
   <si>
-    <t>Thanh toán với bàn không có món ăn vẫn bị lưu vào cơ sở dữ liệu</t>
-  </si>
-  <si>
     <t>Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu</t>
   </si>
   <si>
@@ -644,12 +641,6 @@
   </si>
   <si>
     <t>Thêm món ăn nhập trùng tên</t>
-  </si>
-  <si>
-    <t>Vẫn cập nhật mới với tên món và đơn giá cũ. Thông tin vẫn được lưu vào CSDL</t>
-  </si>
-  <si>
-    <t>Nên show thông báo món ăn đã tồn tại</t>
   </si>
   <si>
     <t>Hiển thị thông báo "Bàn đã được đặt vào lúc dd/mm/yyyy hh:mm:ss của khách hàng X bạn có muốn tạo hóa đơn"                                             Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu</t>
@@ -1606,6 +1597,9 @@
       </rPr>
       <t xml:space="preserve"> Hiển thị thông báo "Vui lòng nhập thông tin khách hàng"</t>
     </r>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Món ăn đã tồn tại trong thực đơn"</t>
   </si>
 </sst>
 </file>
@@ -2621,186 +2615,186 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5409,16 +5403,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5426,7 +5420,7 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="22.2">
+    <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>11</v>
@@ -5456,14 +5450,14 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -5477,11 +5471,11 @@
       <c r="B6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130"/>
+      <c r="C6" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
@@ -5490,11 +5484,11 @@
       <c r="B7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="C7" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
@@ -5521,7 +5515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" ht="26.4">
+    <row r="11" spans="1:8" s="24" customFormat="1" ht="25.5">
       <c r="B11" s="39" t="s">
         <v>16</v>
       </c>
@@ -5556,7 +5550,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="60"/>
@@ -5573,7 +5567,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="61"/>
       <c r="H13" s="60"/>
@@ -5590,41 +5584,41 @@
         <v>48</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="61"/>
       <c r="H14" s="60"/>
     </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="13.2">
+    <row r="15" spans="1:8" s="25" customFormat="1" ht="12.75">
       <c r="B15" s="26">
         <v>43779</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="61"/>
       <c r="H15" s="60"/>
     </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" ht="13.2">
+    <row r="16" spans="1:8" s="25" customFormat="1" ht="12.75">
       <c r="B16" s="26">
         <v>43785</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31"/>
@@ -5725,30 +5719,30 @@
   </sheetPr>
   <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="100" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="65" customWidth="1"/>
-    <col min="4" max="6" width="10.77734375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="0.5546875" style="65" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="65" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="65" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="100" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="65" customWidth="1"/>
+    <col min="4" max="6" width="10.75" style="65" customWidth="1"/>
+    <col min="7" max="7" width="0.5" style="65" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="65" customWidth="1"/>
     <col min="9" max="9" width="7" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="101" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="65"/>
+    <col min="10" max="10" width="19.125" style="101" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="64" customFormat="1">
       <c r="A1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -5757,11 +5751,11 @@
       <c r="J1" s="68"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:11" s="64" customFormat="1" ht="16.2" thickBot="1">
+    <row r="2" spans="1:11" s="64" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="63"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
@@ -5770,56 +5764,56 @@
       <c r="J2" s="68"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" s="64" customFormat="1" ht="31.2">
+    <row r="3" spans="1:11" s="64" customFormat="1">
       <c r="A3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="159" t="str">
+      <c r="B3" s="168" t="str">
         <f>Cover!C6</f>
         <v>Quản lí nhà hàng</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="70"/>
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" s="64" customFormat="1" ht="31.2">
+    <row r="4" spans="1:11" s="64" customFormat="1">
       <c r="A4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="70"/>
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" s="74" customFormat="1" ht="31.2">
+    <row r="5" spans="1:11" s="74" customFormat="1" ht="31.5">
       <c r="A5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
       <c r="G5" s="72"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" s="64" customFormat="1">
@@ -5827,8 +5821,8 @@
         <v>36</v>
       </c>
       <c r="B6" s="76">
-        <f>COUNTIF(I12:I57,"Pass")-7</f>
-        <v>30</v>
+        <f>COUNTIF(I12:I58,"Pass")</f>
+        <v>40</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>37</v>
@@ -5840,39 +5834,39 @@
       <c r="E6" s="79"/>
       <c r="F6" s="79"/>
       <c r="G6" s="79"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
       <c r="K6" s="63"/>
     </row>
-    <row r="7" spans="1:11" s="64" customFormat="1" ht="16.2" thickBot="1">
+    <row r="7" spans="1:11" s="64" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="81">
         <f>COUNTIF(I12:I57,"Fail")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="83">
-        <f>COUNTA(A12:A57) -7</f>
-        <v>39</v>
+        <f>COUNTA(A12:A58) -7</f>
+        <v>40</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
       <c r="G7" s="84"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
       <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" s="64" customFormat="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="79"/>
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
@@ -5882,73 +5876,73 @@
       <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:11" s="64" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="179" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="D9" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="164" t="s">
+      <c r="I9" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="J9" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="142" t="s">
-        <v>130</v>
-      </c>
       <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11" s="87" customFormat="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
       <c r="K10" s="86"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="165"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:11" s="88" customFormat="1">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
-    </row>
-    <row r="13" spans="1:11" s="88" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A13" s="183" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+    </row>
+    <row r="13" spans="1:11" s="88" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A13" s="136" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="109" t="s">
@@ -5957,11 +5951,11 @@
       <c r="C13" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
+      <c r="D13" s="145" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
       <c r="G13" s="90"/>
       <c r="H13" s="102">
         <v>43779</v>
@@ -5971,8 +5965,8 @@
       </c>
       <c r="J13" s="91"/>
     </row>
-    <row r="14" spans="1:11" s="88" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A14" s="183" t="s">
+    <row r="14" spans="1:11" s="88" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A14" s="136" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="103" t="s">
@@ -5981,11 +5975,11 @@
       <c r="C14" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
+      <c r="D14" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="90"/>
       <c r="H14" s="102">
         <v>43779</v>
@@ -5995,8 +5989,8 @@
       </c>
       <c r="J14" s="91"/>
     </row>
-    <row r="15" spans="1:11" s="88" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A15" s="183" t="s">
+    <row r="15" spans="1:11" s="88" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A15" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="103" t="s">
@@ -6005,11 +5999,11 @@
       <c r="C15" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="135" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="D15" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="90"/>
       <c r="H15" s="102">
         <v>43779</v>
@@ -6019,21 +6013,21 @@
       </c>
       <c r="J15" s="91"/>
     </row>
-    <row r="16" spans="1:11" s="88" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A16" s="183" t="s">
+    <row r="16" spans="1:11" s="88" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A16" s="136" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="103" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="135" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+        <v>181</v>
+      </c>
+      <c r="D16" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="90"/>
       <c r="H16" s="105">
         <v>43779</v>
@@ -6043,8 +6037,8 @@
       </c>
       <c r="J16" s="91"/>
     </row>
-    <row r="17" spans="1:14" s="88" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A17" s="183" t="s">
+    <row r="17" spans="1:14" s="88" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A17" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="103" t="s">
@@ -6053,11 +6047,11 @@
       <c r="C17" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="135" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
+      <c r="D17" s="145" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="90"/>
       <c r="H17" s="105">
         <v>43779</v>
@@ -6067,21 +6061,21 @@
       </c>
       <c r="J17" s="91"/>
     </row>
-    <row r="18" spans="1:14" s="88" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A18" s="183" t="s">
+    <row r="18" spans="1:14" s="88" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A18" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="103" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="135" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+        <v>182</v>
+      </c>
+      <c r="D18" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="90"/>
       <c r="H18" s="105">
         <v>43779</v>
@@ -6091,8 +6085,8 @@
       </c>
       <c r="J18" s="91"/>
     </row>
-    <row r="19" spans="1:14" s="88" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A19" s="183" t="s">
+    <row r="19" spans="1:14" s="88" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A19" s="136" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="103" t="s">
@@ -6101,11 +6095,11 @@
       <c r="C19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="167" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="D19" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="90"/>
       <c r="H19" s="105">
         <v>43779</v>
@@ -6116,21 +6110,21 @@
       <c r="J19" s="91"/>
     </row>
     <row r="20" spans="1:14" s="88" customFormat="1">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="138"/>
-    </row>
-    <row r="21" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A21" s="183" t="s">
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="156"/>
+    </row>
+    <row r="21" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A21" s="136" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="110" t="s">
@@ -6139,11 +6133,11 @@
       <c r="C21" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="135" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
+      <c r="D21" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
       <c r="H21" s="105">
         <v>43779</v>
       </c>
@@ -6152,8 +6146,8 @@
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A22" s="183" t="s">
+    <row r="22" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A22" s="136" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="110" t="s">
@@ -6162,11 +6156,11 @@
       <c r="C22" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="145" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
       <c r="H22" s="105">
         <v>43779</v>
       </c>
@@ -6175,8 +6169,8 @@
       </c>
       <c r="J22" s="93"/>
     </row>
-    <row r="23" spans="1:14" s="95" customFormat="1" ht="109.2" outlineLevel="1">
-      <c r="A23" s="183" t="s">
+    <row r="23" spans="1:14" s="95" customFormat="1" ht="110.25" outlineLevel="1">
+      <c r="A23" s="136" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="110" t="s">
@@ -6185,11 +6179,11 @@
       <c r="C23" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="145" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
       <c r="H23" s="105">
         <v>43779</v>
       </c>
@@ -6202,8 +6196,8 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
     </row>
-    <row r="24" spans="1:14" s="95" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A24" s="183" t="s">
+    <row r="24" spans="1:14" s="95" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A24" s="136" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="110" t="s">
@@ -6212,11 +6206,11 @@
       <c r="C24" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="135" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="D24" s="145" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
       <c r="H24" s="105">
         <v>43779</v>
       </c>
@@ -6225,8 +6219,8 @@
       </c>
       <c r="J24" s="93"/>
     </row>
-    <row r="25" spans="1:14" s="95" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A25" s="183" t="s">
+    <row r="25" spans="1:14" s="95" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A25" s="136" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="110" t="s">
@@ -6235,11 +6229,11 @@
       <c r="C25" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
+      <c r="D25" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
       <c r="H25" s="105">
         <v>43779</v>
       </c>
@@ -6249,34 +6243,34 @@
       <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:14" s="88" customFormat="1" outlineLevel="1">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="138"/>
-    </row>
-    <row r="27" spans="1:14" s="95" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A27" s="182" t="s">
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="156"/>
+    </row>
+    <row r="27" spans="1:14" s="95" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A27" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="181" t="s">
-        <v>150</v>
+      <c r="B27" s="134" t="s">
+        <v>147</v>
       </c>
       <c r="C27" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="135" t="s">
+      <c r="D27" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
       <c r="H27" s="105">
         <v>43779</v>
       </c>
@@ -6285,21 +6279,21 @@
       </c>
       <c r="J27" s="93"/>
     </row>
-    <row r="28" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A28" s="182" t="s">
+    <row r="28" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A28" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="181" t="s">
-        <v>150</v>
+      <c r="B28" s="134" t="s">
+        <v>147</v>
       </c>
       <c r="C28" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="133" t="s">
+      <c r="D28" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
       <c r="H28" s="105">
         <v>43779</v>
       </c>
@@ -6308,21 +6302,21 @@
       </c>
       <c r="J28" s="93"/>
     </row>
-    <row r="29" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A29" s="182" t="s">
+    <row r="29" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A29" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="181" t="s">
-        <v>150</v>
+      <c r="B29" s="134" t="s">
+        <v>147</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
       <c r="H29" s="105">
         <v>43779</v>
       </c>
@@ -6331,21 +6325,21 @@
       </c>
       <c r="J29" s="93"/>
     </row>
-    <row r="30" spans="1:14" s="95" customFormat="1" ht="46.8" outlineLevel="1">
-      <c r="A30" s="182" t="s">
+    <row r="30" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A30" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="181" t="s">
-        <v>151</v>
+      <c r="B30" s="134" t="s">
+        <v>148</v>
       </c>
       <c r="C30" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="133" t="s">
+      <c r="D30" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
       <c r="H30" s="105">
         <v>43779</v>
       </c>
@@ -6354,21 +6348,21 @@
       </c>
       <c r="J30" s="93"/>
     </row>
-    <row r="31" spans="1:14" s="95" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A31" s="182" t="s">
+    <row r="31" spans="1:14" s="95" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A31" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="134" t="s">
         <v>84</v>
       </c>
       <c r="C31" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
       <c r="H31" s="105">
         <v>43779</v>
       </c>
@@ -6378,20 +6372,20 @@
       <c r="J31" s="93"/>
     </row>
     <row r="32" spans="1:14" s="95" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="134" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
       <c r="H32" s="105">
         <v>43779</v>
       </c>
@@ -6401,34 +6395,34 @@
       <c r="J32" s="93"/>
     </row>
     <row r="33" spans="1:10" s="88" customFormat="1" outlineLevel="1">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="138"/>
-    </row>
-    <row r="34" spans="1:10" s="95" customFormat="1" ht="127.8" customHeight="1" outlineLevel="1">
-      <c r="A34" s="182" t="s">
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
+    </row>
+    <row r="34" spans="1:10" s="95" customFormat="1" ht="127.9" customHeight="1" outlineLevel="1">
+      <c r="A34" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="134" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+        <v>164</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
       <c r="H34" s="105">
         <v>43782</v>
       </c>
@@ -6437,21 +6431,21 @@
       </c>
       <c r="J34" s="93"/>
     </row>
-    <row r="35" spans="1:10" s="95" customFormat="1" ht="128.4" customHeight="1" outlineLevel="1">
-      <c r="A35" s="182" t="s">
+    <row r="35" spans="1:10" s="95" customFormat="1" ht="128.44999999999999" customHeight="1" outlineLevel="1">
+      <c r="A35" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="134" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="135" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
+        <v>165</v>
+      </c>
+      <c r="D35" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
       <c r="H35" s="105">
         <v>43782</v>
       </c>
@@ -6460,21 +6454,21 @@
       </c>
       <c r="J35" s="93"/>
     </row>
-    <row r="36" spans="1:10" s="95" customFormat="1" ht="124.8" outlineLevel="1">
-      <c r="A36" s="182" t="s">
+    <row r="36" spans="1:10" s="95" customFormat="1" ht="110.25" outlineLevel="1">
+      <c r="A36" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="134" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
+        <v>166</v>
+      </c>
+      <c r="D36" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
       <c r="H36" s="105">
         <v>43782</v>
       </c>
@@ -6483,21 +6477,21 @@
       </c>
       <c r="J36" s="93"/>
     </row>
-    <row r="37" spans="1:10" s="95" customFormat="1" ht="93.6" outlineLevel="1">
-      <c r="A37" s="182" t="s">
+    <row r="37" spans="1:10" s="95" customFormat="1" ht="78.75" outlineLevel="1">
+      <c r="A37" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="134" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
+      <c r="D37" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
       <c r="H37" s="105">
         <v>43782</v>
       </c>
@@ -6506,21 +6500,21 @@
       </c>
       <c r="J37" s="93"/>
     </row>
-    <row r="38" spans="1:10" s="88" customFormat="1" ht="78" outlineLevel="1">
-      <c r="A38" s="182" t="s">
+    <row r="38" spans="1:10" s="88" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A38" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="134" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="133" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
+      <c r="D38" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
       <c r="G38" s="95"/>
       <c r="H38" s="105">
         <v>43782</v>
@@ -6530,21 +6524,21 @@
       </c>
       <c r="J38" s="93"/>
     </row>
-    <row r="39" spans="1:10" s="95" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A39" s="182" t="s">
+    <row r="39" spans="1:10" s="95" customFormat="1" ht="47.25" outlineLevel="1">
+      <c r="A39" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="141" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="133" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="D39" s="149" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
       <c r="H39" s="105">
         <v>43782</v>
       </c>
@@ -6554,34 +6548,34 @@
       <c r="J39" s="93"/>
     </row>
     <row r="40" spans="1:10" s="95" customFormat="1" outlineLevel="1">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="138"/>
-    </row>
-    <row r="41" spans="1:10" s="88" customFormat="1" ht="46.8">
-      <c r="A41" s="182" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="185" t="s">
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
+    </row>
+    <row r="41" spans="1:10" s="88" customFormat="1" ht="47.25">
+      <c r="A41" s="135" t="s">
         <v>149</v>
       </c>
+      <c r="B41" s="138" t="s">
+        <v>146</v>
+      </c>
       <c r="C41" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="135" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
+        <v>178</v>
+      </c>
+      <c r="D41" s="145" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
       <c r="G41" s="95"/>
       <c r="H41" s="105">
         <v>43783</v>
@@ -6591,21 +6585,21 @@
       </c>
       <c r="J41" s="93"/>
     </row>
-    <row r="42" spans="1:10" s="88" customFormat="1" ht="46.8">
-      <c r="A42" s="182" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="185" t="s">
-        <v>149</v>
+    <row r="42" spans="1:10" s="88" customFormat="1" ht="47.25">
+      <c r="A42" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="138" t="s">
+        <v>146</v>
       </c>
       <c r="C42" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
       <c r="G42" s="95"/>
       <c r="H42" s="105">
         <v>43783</v>
@@ -6615,22 +6609,22 @@
       </c>
       <c r="J42" s="113"/>
     </row>
-    <row r="43" spans="1:10" s="88" customFormat="1" ht="46.8">
-      <c r="A43" s="182" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="185" t="s">
-        <v>149</v>
+    <row r="43" spans="1:10" s="88" customFormat="1" ht="47.25">
+      <c r="A43" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="138" t="s">
+        <v>146</v>
       </c>
       <c r="C43" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="174"/>
+      <c r="D43" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="129"/>
       <c r="H43" s="111">
         <v>43783</v>
       </c>
@@ -6639,22 +6633,22 @@
       </c>
       <c r="J43" s="113"/>
     </row>
-    <row r="44" spans="1:10" s="88" customFormat="1" ht="46.8">
-      <c r="A44" s="182" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="185" t="s">
-        <v>149</v>
+    <row r="44" spans="1:10" s="88" customFormat="1" ht="47.25">
+      <c r="A44" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="138" t="s">
+        <v>146</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="174"/>
+        <v>173</v>
+      </c>
+      <c r="D44" s="147" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="129"/>
       <c r="H44" s="111">
         <v>43783</v>
       </c>
@@ -6663,71 +6657,69 @@
       </c>
       <c r="J44" s="113"/>
     </row>
-    <row r="45" spans="1:10" s="88" customFormat="1" ht="101.4" customHeight="1">
-      <c r="A45" s="182" t="s">
-        <v>156</v>
+    <row r="45" spans="1:10" s="88" customFormat="1" ht="101.45" customHeight="1">
+      <c r="A45" s="135" t="s">
+        <v>153</v>
       </c>
       <c r="B45" s="110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="169" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
+        <v>179</v>
+      </c>
+      <c r="D45" s="158" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="99"/>
       <c r="H45" s="105">
         <v>43785</v>
       </c>
       <c r="I45" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="88" customFormat="1" ht="89.4" customHeight="1">
-      <c r="A46" s="182" t="s">
-        <v>157</v>
+        <v>36</v>
+      </c>
+      <c r="J45" s="93"/>
+    </row>
+    <row r="46" spans="1:10" s="88" customFormat="1" ht="89.45" customHeight="1">
+      <c r="A46" s="135" t="s">
+        <v>154</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="175" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
+      <c r="E46" s="189"/>
+      <c r="F46" s="189"/>
       <c r="G46" s="95"/>
-      <c r="H46" s="178">
+      <c r="H46" s="131">
         <v>43783</v>
       </c>
-      <c r="I46" s="179" t="s">
+      <c r="I46" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="180"/>
+      <c r="J46" s="133"/>
     </row>
     <row r="47" spans="1:10" s="88" customFormat="1" ht="72" customHeight="1">
-      <c r="A47" s="182" t="s">
-        <v>158</v>
+      <c r="A47" s="135" t="s">
+        <v>155</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="133" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
+        <v>160</v>
+      </c>
+      <c r="D47" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
       <c r="G47" s="95"/>
       <c r="H47" s="105">
         <v>43783</v>
@@ -6737,21 +6729,21 @@
       </c>
       <c r="J47" s="93"/>
     </row>
-    <row r="48" spans="1:10" s="88" customFormat="1" ht="78">
-      <c r="A48" s="182" t="s">
-        <v>159</v>
+    <row r="48" spans="1:10" s="88" customFormat="1" ht="78.75">
+      <c r="A48" s="135" t="s">
+        <v>156</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
+        <v>161</v>
+      </c>
+      <c r="D48" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
       <c r="G48" s="95"/>
       <c r="H48" s="105">
         <v>43783</v>
@@ -6761,9 +6753,9 @@
       </c>
       <c r="J48" s="93"/>
     </row>
-    <row r="49" spans="1:10" s="95" customFormat="1" ht="62.4" outlineLevel="1">
-      <c r="A49" s="182" t="s">
-        <v>160</v>
+    <row r="49" spans="1:10" s="95" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A49" s="135" t="s">
+        <v>157</v>
       </c>
       <c r="B49" s="110" t="s">
         <v>100</v>
@@ -6771,11 +6763,11 @@
       <c r="C49" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
       <c r="H49" s="105">
         <v>43783</v>
       </c>
@@ -6785,22 +6777,22 @@
       <c r="J49" s="93"/>
     </row>
     <row r="50" spans="1:10" s="95" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
-      <c r="A50" s="136" t="s">
+      <c r="A50" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="138"/>
-    </row>
-    <row r="51" spans="1:10" ht="31.2">
-      <c r="A51" s="186" t="s">
-        <v>161</v>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="156"/>
+    </row>
+    <row r="51" spans="1:10" ht="31.5">
+      <c r="A51" s="139" t="s">
+        <v>158</v>
       </c>
       <c r="B51" s="94" t="s">
         <v>108</v>
@@ -6808,49 +6800,49 @@
       <c r="C51" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="135" t="s">
+      <c r="D51" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
       <c r="G51" s="98"/>
       <c r="H51" s="105">
         <v>43785</v>
       </c>
-      <c r="I51" s="187" t="s">
+      <c r="I51" s="140" t="s">
         <v>36</v>
       </c>
       <c r="J51" s="93"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="136" t="s">
+      <c r="A52" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
-    </row>
-    <row r="53" spans="1:10" ht="97.2" customHeight="1">
-      <c r="A53" s="184" t="s">
-        <v>162</v>
+      <c r="B52" s="155"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="156"/>
+    </row>
+    <row r="53" spans="1:10" ht="97.15" customHeight="1">
+      <c r="A53" s="137" t="s">
+        <v>159</v>
       </c>
       <c r="B53" s="110" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="135" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
+      <c r="D53" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
       <c r="G53" s="95"/>
       <c r="H53" s="105">
         <v>43785</v>
@@ -6860,21 +6852,21 @@
       </c>
       <c r="J53" s="93"/>
     </row>
-    <row r="54" spans="1:10" ht="124.8" customHeight="1">
-      <c r="A54" s="184" t="s">
-        <v>186</v>
+    <row r="54" spans="1:10" ht="124.9" customHeight="1">
+      <c r="A54" s="137" t="s">
+        <v>183</v>
       </c>
       <c r="B54" s="110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="135" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
+        <v>135</v>
+      </c>
+      <c r="D54" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
       <c r="G54" s="95"/>
       <c r="H54" s="105">
         <v>43785</v>
@@ -6885,44 +6877,44 @@
       <c r="J54" s="93"/>
     </row>
     <row r="55" spans="1:10" ht="78" customHeight="1">
-      <c r="A55" s="184" t="s">
-        <v>187</v>
+      <c r="A55" s="137" t="s">
+        <v>184</v>
       </c>
       <c r="B55" s="110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="135" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
+        <v>135</v>
+      </c>
+      <c r="D55" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
       <c r="G55" s="95"/>
       <c r="H55" s="105">
         <v>43785</v>
       </c>
       <c r="I55" s="96" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J55" s="93"/>
     </row>
     <row r="56" spans="1:10" ht="105.6" customHeight="1">
-      <c r="A56" s="184" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="189" t="s">
-        <v>143</v>
+      <c r="A56" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="142" t="s">
+        <v>140</v>
       </c>
       <c r="C56" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="168" t="s">
+      <c r="D56" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
       <c r="G56" s="95"/>
       <c r="H56" s="111">
         <v>43785</v>
@@ -6933,20 +6925,20 @@
       <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="115" customFormat="1" ht="108.6" customHeight="1">
-      <c r="A57" s="184" t="s">
-        <v>189</v>
+      <c r="A57" s="137" t="s">
+        <v>186</v>
       </c>
       <c r="B57" s="110" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C57" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="169" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
+      <c r="D57" s="158" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
       <c r="G57" s="99"/>
       <c r="H57" s="105">
         <v>43785</v>
@@ -6956,51 +6948,49 @@
       </c>
       <c r="J57" s="93"/>
     </row>
-    <row r="58" spans="1:10" s="115" customFormat="1" ht="62.4">
-      <c r="A58" s="183" t="s">
-        <v>190</v>
+    <row r="58" spans="1:10" s="115" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A58" s="136" t="s">
+        <v>187</v>
       </c>
       <c r="B58" s="110" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C58" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="169" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169"/>
+      <c r="D58" s="158" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="99"/>
       <c r="H58" s="105">
         <v>43785</v>
       </c>
       <c r="I58" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="93" t="s">
-        <v>119</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J58" s="93"/>
     </row>
     <row r="59" spans="1:10" s="115" customFormat="1">
-      <c r="A59" s="171"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="150"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="121"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
       <c r="G59" s="114"/>
       <c r="H59" s="122"/>
       <c r="I59" s="123"/>
       <c r="J59" s="124"/>
     </row>
     <row r="60" spans="1:10" s="115" customFormat="1">
-      <c r="A60" s="171"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="150"/>
+      <c r="B60" s="151"/>
       <c r="C60" s="121"/>
-      <c r="D60" s="173"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
       <c r="G60" s="114"/>
       <c r="H60" s="122"/>
       <c r="I60" s="123"/>
@@ -7010,9 +7000,9 @@
       <c r="A61" s="125"/>
       <c r="B61" s="126"/>
       <c r="C61" s="121"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
       <c r="G61" s="114"/>
       <c r="H61" s="122"/>
       <c r="I61" s="123"/>
@@ -7497,58 +7487,8 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D47:F47"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="D30:F30"/>
@@ -7565,8 +7505,58 @@
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7579,17 +7569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2">
+    <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -7609,7 +7599,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
@@ -7619,7 +7609,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -7631,7 +7621,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7640,7 +7630,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7649,7 +7639,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="26.4">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="9"/>
       <c r="B7" s="42" t="s">
         <v>21</v>
@@ -7670,7 +7660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="51" customFormat="1" ht="13.8">
+    <row r="8" spans="1:7" s="51" customFormat="1" ht="14.25">
       <c r="A8" s="52"/>
       <c r="B8" s="53">
         <v>1</v>
@@ -7681,11 +7671,11 @@
       </c>
       <c r="D8" s="55">
         <f>'Export all carrier choices'!B6</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E8" s="54">
         <f>'Export all carrier choices'!B7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="54">
         <f>'Export all carrier choices'!D6</f>
@@ -7693,10 +7683,10 @@
       </c>
       <c r="G8" s="55">
         <f>'Export all carrier choices'!D7</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="8"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
@@ -7705,7 +7695,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="13.8">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="8"/>
       <c r="B10" s="46"/>
       <c r="C10" s="47" t="s">
@@ -7713,11 +7703,11 @@
       </c>
       <c r="D10" s="48">
         <f>SUM(D6:D9)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E10" s="48">
         <f>SUM(E6:E9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="48">
         <f>SUM(F6:F9)</f>
@@ -7725,10 +7715,10 @@
       </c>
       <c r="G10" s="49">
         <f>SUM(G6:G9)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
@@ -7737,7 +7727,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -7746,14 +7736,14 @@
       <c r="D12" s="8"/>
       <c r="E12" s="13">
         <f>(D10+E10)*100/G10</f>
-        <v>82.051282051282058</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -7762,7 +7752,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="13">
         <f>D10*100/G10</f>
-        <v>76.92307692307692</v>
+        <v>100</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\KTPM_QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KTPM_QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1710" windowWidth="23250" windowHeight="12570" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="2172" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
   <si>
     <t>TC16</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>CR100 - Export to excel</t>
   </si>
   <si>
     <t xml:space="preserve">CR1 - </t>
@@ -537,9 +534,6 @@
 3.Click button Sửa</t>
   </si>
   <si>
-    <t>4.Kiểm tra chức năng quản lí hóa đơn</t>
-  </si>
-  <si>
     <t>5.Kiểm tra chức năng quản lí món ăn ( thực đơn )</t>
   </si>
   <si>
@@ -553,9 +547,6 @@
   </si>
   <si>
     <t>Hiện thị thông tin đã lưu vào cơ sở dữ liệu</t>
-  </si>
-  <si>
-    <t>5.Kiểm tra chức năng gọi món</t>
   </si>
   <si>
     <t>TC22</t>
@@ -604,9 +595,6 @@
     <t>Quản lí nhà hàng</t>
   </si>
   <si>
-    <t>16/11/2019</t>
-  </si>
-  <si>
     <t>QLNH-01</t>
   </si>
   <si>
@@ -641,6 +629,9 @@
   </si>
   <si>
     <t>Thêm món ăn nhập trùng tên</t>
+  </si>
+  <si>
+    <t>Vẫn cập nhật mới với tên món và đơn giá cũ. Thông tin vẫn được lưu vào CSDL</t>
   </si>
   <si>
     <t>Hiển thị thông báo "Bàn đã được đặt vào lúc dd/mm/yyyy hh:mm:ss của khách hàng X bạn có muốn tạo hóa đơn"                                             Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu</t>
@@ -762,12 +753,6 @@
   </si>
   <si>
     <t>Gọi Món Ăn với bàn trống có sẵn</t>
-  </si>
-  <si>
-    <t>Gọi Món Ăn với bàn đã được lưu thông tin đặt bàn cũ và mã HĐ mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vẫn hiển thị thông báo với thông tin đặt trước đã được lưu trữ với :          Hiển thị thông báo "Bàn đã được đặt vào lúc dd/mm/yyyy hh:mm:ss của khách hàng X bạn có muốn tạo hóa đơn"                                             Hiển thị thông tin Món ăn khách chọn và lưu vào cơ sở dữ liệu              </t>
   </si>
   <si>
     <t xml:space="preserve">Sửa món ăn </t>
@@ -1372,9 +1357,6 @@
     <t>TC39</t>
   </si>
   <si>
-    <t>TC40</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1599,7 +1581,37 @@
     </r>
   </si>
   <si>
-    <t>Hiển thị thông báo "Món ăn đã tồn tại trong thực đơn"</t>
+    <t>6.Kiểm tra chức năng quản lí hóa đơn</t>
+  </si>
+  <si>
+    <t>7.Kiểm tra chức năng gọi món</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>10/11/2019</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>17/11/2019</t>
+  </si>
+  <si>
+    <t>Trường hợp nhân viên vô tình bấm, ít xảy ra. Vẫn cho thanh toán thành công, nhưng thông tin hóa đơn không được lưu vào CSDL Check Fixed ngày 17/11/2019</t>
+  </si>
+  <si>
+    <t>Check Fixed ngày 17/11/2019</t>
+  </si>
+  <si>
+    <t>Minh Khoa</t>
+  </si>
+  <si>
+    <t>Huy Bac</t>
+  </si>
+  <si>
+    <t>QLNH01 - Export to excel</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2305,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2436,9 +2448,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2795,6 +2804,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5400,19 +5419,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5420,7 +5439,7 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>11</v>
@@ -5437,7 +5456,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="15"/>
@@ -5449,15 +5468,15 @@
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
+      <c r="C4" s="191" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -5471,11 +5490,11 @@
       <c r="B6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
+      <c r="C6" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
@@ -5484,11 +5503,11 @@
       <c r="B7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
+      <c r="C7" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
@@ -5515,7 +5534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" ht="25.5">
+    <row r="11" spans="1:8" s="24" customFormat="1" ht="26.4">
       <c r="B11" s="39" t="s">
         <v>16</v>
       </c>
@@ -5534,7 +5553,7 @@
       <c r="G11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="58" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5550,13 +5569,15 @@
         <v>17</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="60"/>
+        <v>127</v>
+      </c>
+      <c r="G12" s="192" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" s="24" customFormat="1">
-      <c r="B13" s="62">
+      <c r="B13" s="61">
         <v>43782</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -5567,13 +5588,15 @@
         <v>48</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="60"/>
+        <v>127</v>
+      </c>
+      <c r="G13" s="192" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" s="24" customFormat="1">
-      <c r="B14" s="62">
+      <c r="B14" s="61">
         <v>43783</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -5584,52 +5607,68 @@
         <v>48</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="12.75">
+        <v>127</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:8" s="25" customFormat="1" ht="13.2">
       <c r="B15" s="26">
-        <v>43779</v>
+        <v>43784</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" ht="12.75">
+        <v>127</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:8" s="25" customFormat="1" ht="13.2">
       <c r="B16" s="26">
         <v>43785</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="30"/>
+        <v>127</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>201</v>
+      </c>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:8" s="24" customFormat="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="26">
+        <v>43786</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>201</v>
+      </c>
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="2:8" s="24" customFormat="1">
@@ -5707,7 +5746,7 @@
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v1/0&amp;R&amp;"Tahoma,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C12:C13" numberStoredAsText="1"/>
+    <ignoredError sqref="C12:C13 C14:C17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5717,1776 +5756,1756 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="65" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="100" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="65" customWidth="1"/>
-    <col min="4" max="6" width="10.75" style="65" customWidth="1"/>
-    <col min="7" max="7" width="0.5" style="65" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="65" customWidth="1"/>
-    <col min="9" max="9" width="7" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="101" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="65"/>
+    <col min="1" max="1" width="15.77734375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="99" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="64" customWidth="1"/>
+    <col min="4" max="6" width="10.77734375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="0.5546875" style="64" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="9" max="9" width="7" style="100" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="100" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="64" customFormat="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:11" s="63" customFormat="1">
+      <c r="A1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" s="64" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:11" s="64" customFormat="1">
-      <c r="A3" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="168" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="62"/>
+    </row>
+    <row r="2" spans="1:11" s="63" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A2" s="62"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" s="63" customFormat="1" ht="31.2">
+      <c r="A3" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="167" t="str">
         <f>Cover!C6</f>
         <v>Quản lí nhà hàng</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" s="64" customFormat="1">
-      <c r="A4" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="171" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" s="63" customFormat="1" ht="31.2">
+      <c r="A4" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" s="73" customFormat="1" ht="31.2">
+      <c r="A5" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" s="74" customFormat="1" ht="31.5">
-      <c r="A5" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="1:11" s="64" customFormat="1">
-      <c r="A6" s="75" t="s">
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="1:11" s="63" customFormat="1">
+      <c r="A6" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="76">
-        <f>COUNTIF(I12:I58,"Pass")</f>
-        <v>40</v>
-      </c>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="75">
+        <f>COUNTIF(I13:I57,"Pass")</f>
+        <v>39</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="78">
-        <f>COUNTIF(I10:I773,"Pending")</f>
+      <c r="D6" s="77">
+        <f>COUNTIF(I10:I772,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="7" spans="1:11" s="64" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A7" s="80" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="1:11" s="63" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="80">
         <f>COUNTIF(I12:I57,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="82">
+        <f>COUNTA(A12:A57) -7</f>
+        <v>39</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" s="63" customFormat="1">
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" s="63" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A9" s="177" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="178" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="177" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="173" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="169" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="169" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" s="86" customFormat="1">
+      <c r="A10" s="169"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="85"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="175"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
+    </row>
+    <row r="12" spans="1:11" s="87" customFormat="1">
+      <c r="A12" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+    </row>
+    <row r="13" spans="1:11" s="87" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A13" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="101">
+        <v>43779</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="90"/>
+    </row>
+    <row r="14" spans="1:11" s="87" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A14" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="101">
+        <v>43779</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="90"/>
+    </row>
+    <row r="15" spans="1:11" s="87" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A15" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="101">
+        <v>43779</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="90"/>
+    </row>
+    <row r="16" spans="1:11" s="87" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A16" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I16" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="1:14" s="87" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A17" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="90"/>
+    </row>
+    <row r="18" spans="1:14" s="87" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A18" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I18" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" spans="1:14" s="87" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A19" s="135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I19" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="90"/>
+    </row>
+    <row r="20" spans="1:14" s="87" customFormat="1">
+      <c r="A20" s="153" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="155"/>
+    </row>
+    <row r="21" spans="1:14" s="94" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A21" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="H21" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I21" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="92"/>
+    </row>
+    <row r="22" spans="1:14" s="94" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A22" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="H22" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I22" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="92"/>
+    </row>
+    <row r="23" spans="1:14" s="94" customFormat="1" ht="109.2" outlineLevel="1">
+      <c r="A23" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="H23" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I23" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+    </row>
+    <row r="24" spans="1:14" s="94" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A24" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="H24" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="1:14" s="94" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A25" s="135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="H25" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I25" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:14" s="87" customFormat="1" outlineLevel="1">
+      <c r="A26" s="153" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="155"/>
+    </row>
+    <row r="27" spans="1:14" s="94" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A27" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="H27" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I27" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="92"/>
+    </row>
+    <row r="28" spans="1:14" s="94" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A28" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="H28" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I28" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="92"/>
+    </row>
+    <row r="29" spans="1:14" s="94" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A29" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="H29" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I29" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="92"/>
+    </row>
+    <row r="30" spans="1:14" s="94" customFormat="1" ht="46.8" outlineLevel="1">
+      <c r="A30" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="H30" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I30" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="92"/>
+    </row>
+    <row r="31" spans="1:14" s="94" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A31" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="185" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="H31" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I31" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="92"/>
+    </row>
+    <row r="32" spans="1:14" s="94" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A32" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="H32" s="104">
+        <v>43779</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="92"/>
+    </row>
+    <row r="33" spans="1:10" s="87" customFormat="1" outlineLevel="1">
+      <c r="A33" s="153" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
+    </row>
+    <row r="34" spans="1:10" s="94" customFormat="1" ht="127.8" customHeight="1" outlineLevel="1">
+      <c r="A34" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="H34" s="104">
+        <v>43782</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="92"/>
+    </row>
+    <row r="35" spans="1:10" s="94" customFormat="1" ht="128.4" customHeight="1" outlineLevel="1">
+      <c r="A35" s="134" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="144" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="H35" s="104">
+        <v>43782</v>
+      </c>
+      <c r="I35" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="92"/>
+    </row>
+    <row r="36" spans="1:10" s="94" customFormat="1" ht="124.8" outlineLevel="1">
+      <c r="A36" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="H36" s="104">
+        <v>43782</v>
+      </c>
+      <c r="I36" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="92"/>
+    </row>
+    <row r="37" spans="1:10" s="94" customFormat="1" ht="93.6" outlineLevel="1">
+      <c r="A37" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="H37" s="104">
+        <v>43782</v>
+      </c>
+      <c r="I37" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="92"/>
+    </row>
+    <row r="38" spans="1:10" s="87" customFormat="1" ht="78" outlineLevel="1">
+      <c r="A38" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="104">
+        <v>43782</v>
+      </c>
+      <c r="I38" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="92"/>
+    </row>
+    <row r="39" spans="1:10" s="94" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A39" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="148" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="H39" s="104">
+        <v>43782</v>
+      </c>
+      <c r="I39" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="92"/>
+    </row>
+    <row r="40" spans="1:10" s="94" customFormat="1" outlineLevel="1">
+      <c r="A40" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
+    </row>
+    <row r="41" spans="1:10" s="87" customFormat="1" ht="46.8">
+      <c r="A41" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="144" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="104">
+        <v>43783</v>
+      </c>
+      <c r="I41" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="92"/>
+    </row>
+    <row r="42" spans="1:10" s="87" customFormat="1" ht="46.8">
+      <c r="A42" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="104">
+        <v>43783</v>
+      </c>
+      <c r="I42" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="112"/>
+    </row>
+    <row r="43" spans="1:10" s="87" customFormat="1" ht="46.8">
+      <c r="A43" s="134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="110">
+        <v>43783</v>
+      </c>
+      <c r="I43" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="112"/>
+    </row>
+    <row r="44" spans="1:10" s="87" customFormat="1" ht="46.8">
+      <c r="A44" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="110">
+        <v>43783</v>
+      </c>
+      <c r="I44" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="112"/>
+    </row>
+    <row r="45" spans="1:10" s="87" customFormat="1" ht="101.4" customHeight="1">
+      <c r="A45" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="83">
-        <f>COUNTA(A12:A58) -7</f>
-        <v>40</v>
-      </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="63"/>
-    </row>
-    <row r="8" spans="1:11" s="64" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="1:11" s="64" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A9" s="178" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="179" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="174" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="170" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="170" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="1:11" s="87" customFormat="1">
-      <c r="A10" s="170"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="86"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="176"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
-    </row>
-    <row r="12" spans="1:11" s="88" customFormat="1">
-      <c r="A12" s="154" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
-    </row>
-    <row r="13" spans="1:11" s="88" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A13" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="102">
-        <v>43779</v>
-      </c>
-      <c r="I13" s="89" t="s">
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="104">
+        <v>43786</v>
+      </c>
+      <c r="I45" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="1:11" s="88" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A14" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="145" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="102">
-        <v>43779</v>
-      </c>
-      <c r="I14" s="89" t="s">
+      <c r="J45" s="92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="87" customFormat="1" ht="89.4" customHeight="1">
+      <c r="A46" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="187" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="130">
+        <v>43783</v>
+      </c>
+      <c r="I46" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="91"/>
-    </row>
-    <row r="15" spans="1:11" s="88" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A15" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="102">
-        <v>43779</v>
-      </c>
-      <c r="I15" s="89" t="s">
+      <c r="J46" s="132"/>
+    </row>
+    <row r="47" spans="1:10" s="87" customFormat="1" ht="72" customHeight="1">
+      <c r="A47" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="148" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="104">
+        <v>43783</v>
+      </c>
+      <c r="I47" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="91"/>
-    </row>
-    <row r="16" spans="1:11" s="88" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A16" s="136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="92" t="s">
+      <c r="J47" s="92"/>
+    </row>
+    <row r="48" spans="1:10" s="87" customFormat="1" ht="78">
+      <c r="A48" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="148" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="104">
+        <v>43783</v>
+      </c>
+      <c r="I48" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="92"/>
+    </row>
+    <row r="49" spans="1:10" s="94" customFormat="1" ht="62.4" outlineLevel="1">
+      <c r="A49" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="H49" s="104">
+        <v>43783</v>
+      </c>
+      <c r="I49" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="92"/>
+    </row>
+    <row r="50" spans="1:10" s="94" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A50" s="153" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="154"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="155"/>
+    </row>
+    <row r="51" spans="1:10" ht="31.2">
+      <c r="A51" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="104">
+        <v>43785</v>
+      </c>
+      <c r="I51" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="92"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="153" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="155"/>
+    </row>
+    <row r="53" spans="1:10" ht="97.2" customHeight="1">
+      <c r="A53" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="104">
+        <v>43785</v>
+      </c>
+      <c r="I53" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="112"/>
+    </row>
+    <row r="54" spans="1:10" ht="124.8" customHeight="1">
+      <c r="A54" s="136" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="104">
+        <v>43785</v>
+      </c>
+      <c r="I54" s="189" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="190"/>
+    </row>
+    <row r="55" spans="1:10" ht="105.6" customHeight="1">
+      <c r="A55" s="136" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="110">
+        <v>43785</v>
+      </c>
+      <c r="I55" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="112"/>
+    </row>
+    <row r="56" spans="1:10" s="114" customFormat="1" ht="108.6" customHeight="1">
+      <c r="A56" s="136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="104">
+        <v>43785</v>
+      </c>
+      <c r="I56" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="92"/>
+    </row>
+    <row r="57" spans="1:10" s="114" customFormat="1" ht="128.4" customHeight="1">
+      <c r="A57" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="145" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I16" s="89" t="s">
+      <c r="B57" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="104">
+        <v>43786</v>
+      </c>
+      <c r="I57" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="1:14" s="88" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A17" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I17" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="91"/>
-    </row>
-    <row r="18" spans="1:14" s="88" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A18" s="136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="145" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I18" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" spans="1:14" s="88" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A19" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I19" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="91"/>
-    </row>
-    <row r="20" spans="1:14" s="88" customFormat="1">
-      <c r="A20" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="156"/>
-    </row>
-    <row r="21" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A21" s="136" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="145" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="H21" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I21" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="93"/>
-    </row>
-    <row r="22" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A22" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="145" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="H22" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I22" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="93"/>
-    </row>
-    <row r="23" spans="1:14" s="95" customFormat="1" ht="110.25" outlineLevel="1">
-      <c r="A23" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="145" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="H23" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I23" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-    </row>
-    <row r="24" spans="1:14" s="95" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A24" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="145" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="H24" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I24" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="93"/>
-    </row>
-    <row r="25" spans="1:14" s="95" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A25" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="H25" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I25" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="93"/>
-    </row>
-    <row r="26" spans="1:14" s="88" customFormat="1" outlineLevel="1">
-      <c r="A26" s="154" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="156"/>
-    </row>
-    <row r="27" spans="1:14" s="95" customFormat="1" ht="63" outlineLevel="1">
-      <c r="A27" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="145" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="H27" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I27" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="93"/>
-    </row>
-    <row r="28" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A28" s="135" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="H28" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I28" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="93"/>
-    </row>
-    <row r="29" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A29" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="H29" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I29" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="93"/>
-    </row>
-    <row r="30" spans="1:14" s="95" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A30" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="H30" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I30" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="93"/>
-    </row>
-    <row r="31" spans="1:14" s="95" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A31" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="H31" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I31" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="93"/>
-    </row>
-    <row r="32" spans="1:14" s="95" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
-      <c r="A32" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="H32" s="105">
-        <v>43779</v>
-      </c>
-      <c r="I32" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="93"/>
-    </row>
-    <row r="33" spans="1:10" s="88" customFormat="1" outlineLevel="1">
-      <c r="A33" s="154" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="156"/>
-    </row>
-    <row r="34" spans="1:10" s="95" customFormat="1" ht="127.9" customHeight="1" outlineLevel="1">
-      <c r="A34" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="145" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="H34" s="105">
-        <v>43782</v>
-      </c>
-      <c r="I34" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="93"/>
-    </row>
-    <row r="35" spans="1:10" s="95" customFormat="1" ht="128.44999999999999" customHeight="1" outlineLevel="1">
-      <c r="A35" s="135" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="H35" s="105">
-        <v>43782</v>
-      </c>
-      <c r="I35" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="93"/>
-    </row>
-    <row r="36" spans="1:10" s="95" customFormat="1" ht="110.25" outlineLevel="1">
-      <c r="A36" s="135" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="145" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="H36" s="105">
-        <v>43782</v>
-      </c>
-      <c r="I36" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="1:10" s="95" customFormat="1" ht="78.75" outlineLevel="1">
-      <c r="A37" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="H37" s="105">
-        <v>43782</v>
-      </c>
-      <c r="I37" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="93"/>
-    </row>
-    <row r="38" spans="1:10" s="88" customFormat="1" ht="63" outlineLevel="1">
-      <c r="A38" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="105">
-        <v>43782</v>
-      </c>
-      <c r="I38" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="93"/>
-    </row>
-    <row r="39" spans="1:10" s="95" customFormat="1" ht="47.25" outlineLevel="1">
-      <c r="A39" s="135" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="149" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="H39" s="105">
-        <v>43782</v>
-      </c>
-      <c r="I39" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="93"/>
-    </row>
-    <row r="40" spans="1:10" s="95" customFormat="1" outlineLevel="1">
-      <c r="A40" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="156"/>
-    </row>
-    <row r="41" spans="1:10" s="88" customFormat="1" ht="47.25">
-      <c r="A41" s="135" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="145" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="105">
-        <v>43783</v>
-      </c>
-      <c r="I41" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="93"/>
-    </row>
-    <row r="42" spans="1:10" s="88" customFormat="1" ht="47.25">
-      <c r="A42" s="135" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="105">
-        <v>43783</v>
-      </c>
-      <c r="I42" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" s="113"/>
-    </row>
-    <row r="43" spans="1:10" s="88" customFormat="1" ht="47.25">
-      <c r="A43" s="135" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="147" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="111">
-        <v>43783</v>
-      </c>
-      <c r="I43" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="113"/>
-    </row>
-    <row r="44" spans="1:10" s="88" customFormat="1" ht="47.25">
-      <c r="A44" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="119" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="111">
-        <v>43783</v>
-      </c>
-      <c r="I44" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="113"/>
-    </row>
-    <row r="45" spans="1:10" s="88" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A45" s="135" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="158" t="s">
+      <c r="J57" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I45" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="93"/>
-    </row>
-    <row r="46" spans="1:10" s="88" customFormat="1" ht="89.45" customHeight="1">
-      <c r="A46" s="135" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="131">
-        <v>43783</v>
-      </c>
-      <c r="I46" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="133"/>
-    </row>
-    <row r="47" spans="1:10" s="88" customFormat="1" ht="72" customHeight="1">
-      <c r="A47" s="135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="149" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="105">
-        <v>43783</v>
-      </c>
-      <c r="I47" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="93"/>
-    </row>
-    <row r="48" spans="1:10" s="88" customFormat="1" ht="78.75">
-      <c r="A48" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="105">
-        <v>43783</v>
-      </c>
-      <c r="I48" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="93"/>
-    </row>
-    <row r="49" spans="1:10" s="95" customFormat="1" ht="63" outlineLevel="1">
-      <c r="A49" s="135" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="149" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="H49" s="105">
-        <v>43783</v>
-      </c>
-      <c r="I49" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J49" s="93"/>
-    </row>
-    <row r="50" spans="1:10" s="95" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
-      <c r="A50" s="154" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="155"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="156"/>
-    </row>
-    <row r="51" spans="1:10" ht="31.5">
-      <c r="A51" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I51" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="93"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="155"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="156"/>
-    </row>
-    <row r="53" spans="1:10" ht="97.15" customHeight="1">
-      <c r="A53" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="146"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I53" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="93"/>
-    </row>
-    <row r="54" spans="1:10" ht="124.9" customHeight="1">
-      <c r="A54" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="145" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I54" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J54" s="93"/>
-    </row>
-    <row r="55" spans="1:10" ht="78" customHeight="1">
-      <c r="A55" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I55" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="93"/>
-    </row>
-    <row r="56" spans="1:10" ht="105.6" customHeight="1">
-      <c r="A56" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" s="142" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="157" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="148"/>
-      <c r="F56" s="148"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="111">
-        <v>43785</v>
-      </c>
-      <c r="I56" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="113"/>
-    </row>
-    <row r="57" spans="1:10" s="115" customFormat="1" ht="108.6" customHeight="1">
-      <c r="A57" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I57" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="93"/>
-    </row>
-    <row r="58" spans="1:10" s="115" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A58" s="136" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="158" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="105">
-        <v>43785</v>
-      </c>
-      <c r="I58" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="J58" s="93"/>
-    </row>
-    <row r="59" spans="1:10" s="115" customFormat="1">
-      <c r="A59" s="150"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="121"/>
+    </row>
+    <row r="58" spans="1:10" s="114" customFormat="1">
+      <c r="A58" s="149"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="123"/>
+    </row>
+    <row r="59" spans="1:10" s="114" customFormat="1">
+      <c r="A59" s="149"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="124"/>
-    </row>
-    <row r="60" spans="1:10" s="115" customFormat="1">
-      <c r="A60" s="150"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="124"/>
-    </row>
-    <row r="61" spans="1:10" s="115" customFormat="1">
-      <c r="A61" s="125"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="124"/>
-    </row>
-    <row r="62" spans="1:10" s="115" customFormat="1">
-      <c r="B62" s="116"/>
-    </row>
-    <row r="63" spans="1:10" s="115" customFormat="1">
-      <c r="B63" s="116"/>
-    </row>
-    <row r="64" spans="1:10" s="115" customFormat="1">
-      <c r="B64" s="116"/>
-    </row>
-    <row r="65" spans="2:2" s="115" customFormat="1">
-      <c r="B65" s="116"/>
-    </row>
-    <row r="66" spans="2:2" s="115" customFormat="1">
-      <c r="B66" s="116"/>
-    </row>
-    <row r="67" spans="2:2" s="115" customFormat="1">
-      <c r="B67" s="116"/>
-    </row>
-    <row r="68" spans="2:2" s="115" customFormat="1">
-      <c r="B68" s="116"/>
-    </row>
-    <row r="69" spans="2:2" s="115" customFormat="1">
-      <c r="B69" s="116"/>
-    </row>
-    <row r="70" spans="2:2" s="115" customFormat="1">
-      <c r="B70" s="116"/>
-    </row>
-    <row r="71" spans="2:2" s="115" customFormat="1">
-      <c r="B71" s="116"/>
-    </row>
-    <row r="72" spans="2:2" s="115" customFormat="1">
-      <c r="B72" s="116"/>
-    </row>
-    <row r="73" spans="2:2" s="115" customFormat="1">
-      <c r="B73" s="116"/>
-    </row>
-    <row r="74" spans="2:2" s="115" customFormat="1">
-      <c r="B74" s="116"/>
-    </row>
-    <row r="75" spans="2:2" s="115" customFormat="1">
-      <c r="B75" s="116"/>
-    </row>
-    <row r="76" spans="2:2" s="115" customFormat="1">
-      <c r="B76" s="116"/>
-    </row>
-    <row r="77" spans="2:2" s="115" customFormat="1">
-      <c r="B77" s="116"/>
-    </row>
-    <row r="78" spans="2:2" s="115" customFormat="1">
-      <c r="B78" s="116"/>
-    </row>
-    <row r="79" spans="2:2" s="115" customFormat="1">
-      <c r="B79" s="116"/>
-    </row>
-    <row r="80" spans="2:2" s="115" customFormat="1">
-      <c r="B80" s="116"/>
-    </row>
-    <row r="81" spans="2:2" s="115" customFormat="1">
-      <c r="B81" s="116"/>
-    </row>
-    <row r="82" spans="2:2" s="115" customFormat="1">
-      <c r="B82" s="116"/>
-    </row>
-    <row r="83" spans="2:2" s="115" customFormat="1">
-      <c r="B83" s="116"/>
-    </row>
-    <row r="84" spans="2:2" s="115" customFormat="1">
-      <c r="B84" s="116"/>
-    </row>
-    <row r="85" spans="2:2" s="115" customFormat="1">
-      <c r="B85" s="116"/>
-    </row>
-    <row r="86" spans="2:2" s="115" customFormat="1">
-      <c r="B86" s="116"/>
-    </row>
-    <row r="87" spans="2:2" s="115" customFormat="1">
-      <c r="B87" s="116"/>
-    </row>
-    <row r="88" spans="2:2" s="115" customFormat="1">
-      <c r="B88" s="116"/>
-    </row>
-    <row r="89" spans="2:2" s="115" customFormat="1">
-      <c r="B89" s="116"/>
-    </row>
-    <row r="90" spans="2:2" s="115" customFormat="1">
-      <c r="B90" s="116"/>
-    </row>
-    <row r="91" spans="2:2" s="115" customFormat="1">
-      <c r="B91" s="116"/>
-    </row>
-    <row r="92" spans="2:2" s="115" customFormat="1">
-      <c r="B92" s="116"/>
-    </row>
-    <row r="93" spans="2:2" s="115" customFormat="1">
-      <c r="B93" s="116"/>
-    </row>
-    <row r="94" spans="2:2" s="115" customFormat="1">
-      <c r="B94" s="116"/>
-    </row>
-    <row r="95" spans="2:2" s="115" customFormat="1">
-      <c r="B95" s="116"/>
-    </row>
-    <row r="96" spans="2:2" s="115" customFormat="1">
-      <c r="B96" s="116"/>
-    </row>
-    <row r="97" spans="2:10" s="115" customFormat="1">
-      <c r="B97" s="116"/>
-    </row>
-    <row r="98" spans="2:10" s="115" customFormat="1">
-      <c r="B98" s="116"/>
-    </row>
-    <row r="99" spans="2:10" s="115" customFormat="1">
-      <c r="B99" s="116"/>
-    </row>
-    <row r="100" spans="2:10" s="115" customFormat="1">
-      <c r="B100" s="116"/>
-    </row>
-    <row r="101" spans="2:10" s="115" customFormat="1">
-      <c r="B101" s="116"/>
-    </row>
-    <row r="102" spans="2:10" s="115" customFormat="1">
-      <c r="B102" s="116"/>
-    </row>
-    <row r="103" spans="2:10" s="115" customFormat="1">
-      <c r="B103" s="116"/>
-    </row>
-    <row r="104" spans="2:10" s="115" customFormat="1">
-      <c r="B104" s="116"/>
-    </row>
-    <row r="105" spans="2:10" s="115" customFormat="1">
-      <c r="B105" s="116"/>
-    </row>
-    <row r="106" spans="2:10" s="115" customFormat="1">
-      <c r="B106" s="116"/>
-    </row>
-    <row r="107" spans="2:10" s="115" customFormat="1">
-      <c r="B107" s="116"/>
-    </row>
-    <row r="108" spans="2:10" s="115" customFormat="1">
-      <c r="B108" s="116"/>
-    </row>
-    <row r="109" spans="2:10" s="115" customFormat="1">
-      <c r="B109" s="116"/>
-    </row>
-    <row r="110" spans="2:10" s="115" customFormat="1">
-      <c r="B110" s="116"/>
-    </row>
-    <row r="111" spans="2:10" s="115" customFormat="1">
-      <c r="B111" s="116"/>
-    </row>
-    <row r="112" spans="2:10" s="115" customFormat="1">
-      <c r="B112" s="116"/>
-      <c r="I112" s="120"/>
-      <c r="J112" s="120"/>
-    </row>
-    <row r="113" spans="2:10" s="115" customFormat="1">
-      <c r="B113" s="116"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="101"/>
-    </row>
-    <row r="114" spans="2:10" s="115" customFormat="1">
-      <c r="B114" s="116"/>
-      <c r="I114" s="101"/>
-      <c r="J114" s="101"/>
-    </row>
-    <row r="115" spans="2:10" s="115" customFormat="1">
-      <c r="B115" s="116"/>
-      <c r="I115" s="101"/>
-      <c r="J115" s="101"/>
-    </row>
-    <row r="116" spans="2:10" s="115" customFormat="1">
-      <c r="B116" s="116"/>
-      <c r="I116" s="101"/>
-      <c r="J116" s="101"/>
-    </row>
-    <row r="117" spans="2:10" s="115" customFormat="1">
-      <c r="B117" s="116"/>
-      <c r="I117" s="101"/>
-      <c r="J117" s="101"/>
-    </row>
-    <row r="118" spans="2:10" s="115" customFormat="1">
-      <c r="B118" s="116"/>
-      <c r="I118" s="101"/>
-      <c r="J118" s="101"/>
-    </row>
-    <row r="119" spans="2:10" s="115" customFormat="1">
-      <c r="B119" s="116"/>
-      <c r="I119" s="101"/>
-      <c r="J119" s="101"/>
-    </row>
-    <row r="120" spans="2:10" s="115" customFormat="1">
-      <c r="B120" s="116"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="101"/>
-    </row>
-    <row r="121" spans="2:10" s="115" customFormat="1">
-      <c r="B121" s="116"/>
-      <c r="I121" s="101"/>
-      <c r="J121" s="101"/>
-    </row>
-    <row r="122" spans="2:10" s="115" customFormat="1">
-      <c r="B122" s="116"/>
-      <c r="I122" s="101"/>
-      <c r="J122" s="101"/>
-    </row>
-    <row r="123" spans="2:10" s="115" customFormat="1">
-      <c r="B123" s="116"/>
-      <c r="I123" s="101"/>
-      <c r="J123" s="101"/>
-    </row>
-    <row r="124" spans="2:10" s="115" customFormat="1">
-      <c r="B124" s="116"/>
-      <c r="I124" s="101"/>
-      <c r="J124" s="101"/>
-    </row>
-    <row r="125" spans="2:10" s="115" customFormat="1">
-      <c r="B125" s="116"/>
-      <c r="I125" s="101"/>
-      <c r="J125" s="101"/>
-    </row>
-    <row r="126" spans="2:10" s="115" customFormat="1">
-      <c r="B126" s="116"/>
-      <c r="I126" s="101"/>
-      <c r="J126" s="101"/>
-    </row>
-    <row r="127" spans="2:10" s="115" customFormat="1">
-      <c r="B127" s="116"/>
-      <c r="I127" s="101"/>
-      <c r="J127" s="101"/>
-    </row>
-    <row r="128" spans="2:10" s="115" customFormat="1">
-      <c r="B128" s="116"/>
-      <c r="I128" s="101"/>
-      <c r="J128" s="101"/>
-    </row>
-    <row r="129" spans="2:10" s="115" customFormat="1">
-      <c r="B129" s="116"/>
-      <c r="I129" s="101"/>
-      <c r="J129" s="101"/>
-    </row>
-    <row r="130" spans="2:10" s="115" customFormat="1">
-      <c r="B130" s="116"/>
-      <c r="I130" s="101"/>
-      <c r="J130" s="101"/>
-    </row>
-    <row r="131" spans="2:10" s="115" customFormat="1">
-      <c r="B131" s="116"/>
-      <c r="I131" s="101"/>
-      <c r="J131" s="101"/>
-    </row>
-    <row r="132" spans="2:10" s="115" customFormat="1">
-      <c r="B132" s="116"/>
-      <c r="I132" s="101"/>
-      <c r="J132" s="101"/>
-    </row>
-    <row r="133" spans="2:10" s="115" customFormat="1">
-      <c r="B133" s="116"/>
-      <c r="I133" s="101"/>
-      <c r="J133" s="101"/>
-    </row>
-    <row r="134" spans="2:10" s="115" customFormat="1">
-      <c r="B134" s="116"/>
-      <c r="I134" s="101"/>
-      <c r="J134" s="101"/>
-    </row>
-    <row r="135" spans="2:10" s="115" customFormat="1">
-      <c r="B135" s="116"/>
-      <c r="I135" s="101"/>
-      <c r="J135" s="101"/>
-    </row>
-    <row r="136" spans="2:10" s="115" customFormat="1">
-      <c r="B136" s="116"/>
-      <c r="I136" s="101"/>
-      <c r="J136" s="101"/>
-    </row>
-    <row r="137" spans="2:10" s="115" customFormat="1">
-      <c r="B137" s="116"/>
-      <c r="I137" s="101"/>
-      <c r="J137" s="101"/>
-    </row>
-    <row r="138" spans="2:10" s="115" customFormat="1">
-      <c r="B138" s="116"/>
-      <c r="I138" s="101"/>
-      <c r="J138" s="101"/>
-    </row>
-    <row r="139" spans="2:10" s="115" customFormat="1">
-      <c r="B139" s="116"/>
-      <c r="I139" s="101"/>
-      <c r="J139" s="101"/>
-    </row>
-    <row r="140" spans="2:10" s="115" customFormat="1">
-      <c r="B140" s="116"/>
-      <c r="I140" s="101"/>
-      <c r="J140" s="101"/>
-    </row>
-    <row r="141" spans="2:10" s="115" customFormat="1">
-      <c r="B141" s="116"/>
-      <c r="I141" s="101"/>
-      <c r="J141" s="101"/>
-    </row>
-    <row r="142" spans="2:10" s="115" customFormat="1">
-      <c r="B142" s="116"/>
-      <c r="I142" s="101"/>
-      <c r="J142" s="101"/>
-    </row>
-    <row r="143" spans="2:10" s="115" customFormat="1">
-      <c r="B143" s="116"/>
-      <c r="I143" s="101"/>
-      <c r="J143" s="101"/>
-    </row>
-    <row r="144" spans="2:10" s="115" customFormat="1">
-      <c r="B144" s="116"/>
-      <c r="I144" s="101"/>
-      <c r="J144" s="101"/>
-    </row>
-    <row r="145" spans="2:10" s="115" customFormat="1">
-      <c r="B145" s="116"/>
-      <c r="I145" s="101"/>
-      <c r="J145" s="101"/>
-    </row>
-    <row r="146" spans="2:10" s="115" customFormat="1">
-      <c r="B146" s="116"/>
-      <c r="I146" s="101"/>
-      <c r="J146" s="101"/>
-    </row>
-    <row r="147" spans="2:10" s="115" customFormat="1">
-      <c r="B147" s="116"/>
-      <c r="I147" s="101"/>
-      <c r="J147" s="101"/>
-    </row>
-    <row r="148" spans="2:10" s="115" customFormat="1">
-      <c r="B148" s="116"/>
-      <c r="I148" s="101"/>
-      <c r="J148" s="101"/>
-    </row>
-    <row r="149" spans="2:10" s="115" customFormat="1">
-      <c r="B149" s="116"/>
-      <c r="I149" s="101"/>
-      <c r="J149" s="101"/>
-    </row>
-    <row r="150" spans="2:10" s="115" customFormat="1">
-      <c r="B150" s="116"/>
-      <c r="I150" s="101"/>
-      <c r="J150" s="101"/>
-    </row>
-    <row r="151" spans="2:10" s="115" customFormat="1">
-      <c r="B151" s="116"/>
-      <c r="I151" s="101"/>
-      <c r="J151" s="101"/>
-    </row>
-    <row r="152" spans="2:10" s="115" customFormat="1">
-      <c r="B152" s="116"/>
-      <c r="I152" s="101"/>
-      <c r="J152" s="101"/>
-    </row>
-    <row r="153" spans="2:10" s="115" customFormat="1">
-      <c r="B153" s="116"/>
-      <c r="I153" s="101"/>
-      <c r="J153" s="101"/>
-    </row>
-    <row r="154" spans="2:10" s="115" customFormat="1">
-      <c r="B154" s="116"/>
-      <c r="I154" s="101"/>
-      <c r="J154" s="101"/>
-    </row>
-    <row r="155" spans="2:10" s="115" customFormat="1">
-      <c r="B155" s="116"/>
-      <c r="I155" s="101"/>
-      <c r="J155" s="101"/>
-    </row>
-    <row r="156" spans="2:10" s="115" customFormat="1">
-      <c r="B156" s="116"/>
-      <c r="I156" s="101"/>
-      <c r="J156" s="101"/>
-    </row>
-    <row r="157" spans="2:10" s="115" customFormat="1">
-      <c r="B157" s="116"/>
-      <c r="I157" s="101"/>
-      <c r="J157" s="101"/>
-    </row>
-    <row r="158" spans="2:10" s="115" customFormat="1">
-      <c r="B158" s="116"/>
-      <c r="I158" s="101"/>
-      <c r="J158" s="101"/>
-    </row>
-    <row r="159" spans="2:10" s="115" customFormat="1">
-      <c r="B159" s="116"/>
-      <c r="I159" s="101"/>
-      <c r="J159" s="101"/>
-    </row>
-    <row r="160" spans="2:10" s="115" customFormat="1">
-      <c r="B160" s="116"/>
-      <c r="I160" s="101"/>
-      <c r="J160" s="101"/>
-    </row>
-    <row r="161" spans="1:10" s="115" customFormat="1">
-      <c r="B161" s="116"/>
-      <c r="I161" s="101"/>
-      <c r="J161" s="101"/>
-    </row>
-    <row r="162" spans="1:10" s="115" customFormat="1">
-      <c r="B162" s="116"/>
-      <c r="I162" s="101"/>
-      <c r="J162" s="101"/>
-    </row>
-    <row r="163" spans="1:10" s="115" customFormat="1">
-      <c r="B163" s="116"/>
-      <c r="I163" s="101"/>
-      <c r="J163" s="101"/>
-    </row>
-    <row r="164" spans="1:10" s="115" customFormat="1">
-      <c r="B164" s="116"/>
-      <c r="I164" s="101"/>
-      <c r="J164" s="101"/>
-    </row>
-    <row r="165" spans="1:10" s="115" customFormat="1">
-      <c r="B165" s="116"/>
-      <c r="I165" s="101"/>
-      <c r="J165" s="101"/>
-    </row>
-    <row r="166" spans="1:10" s="115" customFormat="1">
-      <c r="B166" s="116"/>
-      <c r="I166" s="101"/>
-      <c r="J166" s="101"/>
-    </row>
-    <row r="167" spans="1:10" s="115" customFormat="1">
-      <c r="B167" s="116"/>
-      <c r="I167" s="101"/>
-      <c r="J167" s="101"/>
-    </row>
-    <row r="168" spans="1:10" s="115" customFormat="1">
-      <c r="B168" s="116"/>
-      <c r="I168" s="101"/>
-      <c r="J168" s="101"/>
-    </row>
-    <row r="169" spans="1:10" s="115" customFormat="1">
-      <c r="B169" s="116"/>
-      <c r="I169" s="101"/>
-      <c r="J169" s="101"/>
-    </row>
-    <row r="170" spans="1:10" s="115" customFormat="1">
-      <c r="B170" s="116"/>
-      <c r="I170" s="101"/>
-      <c r="J170" s="101"/>
-    </row>
-    <row r="171" spans="1:10" s="115" customFormat="1">
-      <c r="B171" s="116"/>
-      <c r="I171" s="101"/>
-      <c r="J171" s="101"/>
-    </row>
-    <row r="172" spans="1:10" s="115" customFormat="1">
-      <c r="B172" s="116"/>
-      <c r="I172" s="101"/>
-      <c r="J172" s="101"/>
-    </row>
-    <row r="173" spans="1:10" s="117" customFormat="1">
-      <c r="A173" s="115"/>
-      <c r="B173" s="116"/>
-      <c r="C173" s="115"/>
-      <c r="D173" s="115"/>
-      <c r="E173" s="115"/>
-      <c r="F173" s="115"/>
-      <c r="G173" s="115"/>
-      <c r="H173" s="115"/>
-      <c r="I173" s="101"/>
-      <c r="J173" s="101"/>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" s="117"/>
-      <c r="B174" s="118"/>
-      <c r="C174" s="117"/>
-      <c r="D174" s="117"/>
-      <c r="E174" s="117"/>
-      <c r="F174" s="117"/>
-      <c r="G174" s="117"/>
-      <c r="H174" s="117"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="123"/>
+    </row>
+    <row r="60" spans="1:10" s="114" customFormat="1">
+      <c r="A60" s="124"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="123"/>
+    </row>
+    <row r="61" spans="1:10" s="114" customFormat="1">
+      <c r="B61" s="115"/>
+    </row>
+    <row r="62" spans="1:10" s="114" customFormat="1">
+      <c r="B62" s="115"/>
+    </row>
+    <row r="63" spans="1:10" s="114" customFormat="1">
+      <c r="B63" s="115"/>
+    </row>
+    <row r="64" spans="1:10" s="114" customFormat="1">
+      <c r="B64" s="115"/>
+    </row>
+    <row r="65" spans="2:2" s="114" customFormat="1">
+      <c r="B65" s="115"/>
+    </row>
+    <row r="66" spans="2:2" s="114" customFormat="1">
+      <c r="B66" s="115"/>
+    </row>
+    <row r="67" spans="2:2" s="114" customFormat="1">
+      <c r="B67" s="115"/>
+    </row>
+    <row r="68" spans="2:2" s="114" customFormat="1">
+      <c r="B68" s="115"/>
+    </row>
+    <row r="69" spans="2:2" s="114" customFormat="1">
+      <c r="B69" s="115"/>
+    </row>
+    <row r="70" spans="2:2" s="114" customFormat="1">
+      <c r="B70" s="115"/>
+    </row>
+    <row r="71" spans="2:2" s="114" customFormat="1">
+      <c r="B71" s="115"/>
+    </row>
+    <row r="72" spans="2:2" s="114" customFormat="1">
+      <c r="B72" s="115"/>
+    </row>
+    <row r="73" spans="2:2" s="114" customFormat="1">
+      <c r="B73" s="115"/>
+    </row>
+    <row r="74" spans="2:2" s="114" customFormat="1">
+      <c r="B74" s="115"/>
+    </row>
+    <row r="75" spans="2:2" s="114" customFormat="1">
+      <c r="B75" s="115"/>
+    </row>
+    <row r="76" spans="2:2" s="114" customFormat="1">
+      <c r="B76" s="115"/>
+    </row>
+    <row r="77" spans="2:2" s="114" customFormat="1">
+      <c r="B77" s="115"/>
+    </row>
+    <row r="78" spans="2:2" s="114" customFormat="1">
+      <c r="B78" s="115"/>
+    </row>
+    <row r="79" spans="2:2" s="114" customFormat="1">
+      <c r="B79" s="115"/>
+    </row>
+    <row r="80" spans="2:2" s="114" customFormat="1">
+      <c r="B80" s="115"/>
+    </row>
+    <row r="81" spans="2:2" s="114" customFormat="1">
+      <c r="B81" s="115"/>
+    </row>
+    <row r="82" spans="2:2" s="114" customFormat="1">
+      <c r="B82" s="115"/>
+    </row>
+    <row r="83" spans="2:2" s="114" customFormat="1">
+      <c r="B83" s="115"/>
+    </row>
+    <row r="84" spans="2:2" s="114" customFormat="1">
+      <c r="B84" s="115"/>
+    </row>
+    <row r="85" spans="2:2" s="114" customFormat="1">
+      <c r="B85" s="115"/>
+    </row>
+    <row r="86" spans="2:2" s="114" customFormat="1">
+      <c r="B86" s="115"/>
+    </row>
+    <row r="87" spans="2:2" s="114" customFormat="1">
+      <c r="B87" s="115"/>
+    </row>
+    <row r="88" spans="2:2" s="114" customFormat="1">
+      <c r="B88" s="115"/>
+    </row>
+    <row r="89" spans="2:2" s="114" customFormat="1">
+      <c r="B89" s="115"/>
+    </row>
+    <row r="90" spans="2:2" s="114" customFormat="1">
+      <c r="B90" s="115"/>
+    </row>
+    <row r="91" spans="2:2" s="114" customFormat="1">
+      <c r="B91" s="115"/>
+    </row>
+    <row r="92" spans="2:2" s="114" customFormat="1">
+      <c r="B92" s="115"/>
+    </row>
+    <row r="93" spans="2:2" s="114" customFormat="1">
+      <c r="B93" s="115"/>
+    </row>
+    <row r="94" spans="2:2" s="114" customFormat="1">
+      <c r="B94" s="115"/>
+    </row>
+    <row r="95" spans="2:2" s="114" customFormat="1">
+      <c r="B95" s="115"/>
+    </row>
+    <row r="96" spans="2:2" s="114" customFormat="1">
+      <c r="B96" s="115"/>
+    </row>
+    <row r="97" spans="2:10" s="114" customFormat="1">
+      <c r="B97" s="115"/>
+    </row>
+    <row r="98" spans="2:10" s="114" customFormat="1">
+      <c r="B98" s="115"/>
+    </row>
+    <row r="99" spans="2:10" s="114" customFormat="1">
+      <c r="B99" s="115"/>
+    </row>
+    <row r="100" spans="2:10" s="114" customFormat="1">
+      <c r="B100" s="115"/>
+    </row>
+    <row r="101" spans="2:10" s="114" customFormat="1">
+      <c r="B101" s="115"/>
+    </row>
+    <row r="102" spans="2:10" s="114" customFormat="1">
+      <c r="B102" s="115"/>
+    </row>
+    <row r="103" spans="2:10" s="114" customFormat="1">
+      <c r="B103" s="115"/>
+    </row>
+    <row r="104" spans="2:10" s="114" customFormat="1">
+      <c r="B104" s="115"/>
+    </row>
+    <row r="105" spans="2:10" s="114" customFormat="1">
+      <c r="B105" s="115"/>
+    </row>
+    <row r="106" spans="2:10" s="114" customFormat="1">
+      <c r="B106" s="115"/>
+    </row>
+    <row r="107" spans="2:10" s="114" customFormat="1">
+      <c r="B107" s="115"/>
+    </row>
+    <row r="108" spans="2:10" s="114" customFormat="1">
+      <c r="B108" s="115"/>
+    </row>
+    <row r="109" spans="2:10" s="114" customFormat="1">
+      <c r="B109" s="115"/>
+    </row>
+    <row r="110" spans="2:10" s="114" customFormat="1">
+      <c r="B110" s="115"/>
+    </row>
+    <row r="111" spans="2:10" s="114" customFormat="1">
+      <c r="B111" s="115"/>
+      <c r="I111" s="119"/>
+      <c r="J111" s="119"/>
+    </row>
+    <row r="112" spans="2:10" s="114" customFormat="1">
+      <c r="B112" s="115"/>
+      <c r="I112" s="100"/>
+      <c r="J112" s="100"/>
+    </row>
+    <row r="113" spans="2:10" s="114" customFormat="1">
+      <c r="B113" s="115"/>
+      <c r="I113" s="100"/>
+      <c r="J113" s="100"/>
+    </row>
+    <row r="114" spans="2:10" s="114" customFormat="1">
+      <c r="B114" s="115"/>
+      <c r="I114" s="100"/>
+      <c r="J114" s="100"/>
+    </row>
+    <row r="115" spans="2:10" s="114" customFormat="1">
+      <c r="B115" s="115"/>
+      <c r="I115" s="100"/>
+      <c r="J115" s="100"/>
+    </row>
+    <row r="116" spans="2:10" s="114" customFormat="1">
+      <c r="B116" s="115"/>
+      <c r="I116" s="100"/>
+      <c r="J116" s="100"/>
+    </row>
+    <row r="117" spans="2:10" s="114" customFormat="1">
+      <c r="B117" s="115"/>
+      <c r="I117" s="100"/>
+      <c r="J117" s="100"/>
+    </row>
+    <row r="118" spans="2:10" s="114" customFormat="1">
+      <c r="B118" s="115"/>
+      <c r="I118" s="100"/>
+      <c r="J118" s="100"/>
+    </row>
+    <row r="119" spans="2:10" s="114" customFormat="1">
+      <c r="B119" s="115"/>
+      <c r="I119" s="100"/>
+      <c r="J119" s="100"/>
+    </row>
+    <row r="120" spans="2:10" s="114" customFormat="1">
+      <c r="B120" s="115"/>
+      <c r="I120" s="100"/>
+      <c r="J120" s="100"/>
+    </row>
+    <row r="121" spans="2:10" s="114" customFormat="1">
+      <c r="B121" s="115"/>
+      <c r="I121" s="100"/>
+      <c r="J121" s="100"/>
+    </row>
+    <row r="122" spans="2:10" s="114" customFormat="1">
+      <c r="B122" s="115"/>
+      <c r="I122" s="100"/>
+      <c r="J122" s="100"/>
+    </row>
+    <row r="123" spans="2:10" s="114" customFormat="1">
+      <c r="B123" s="115"/>
+      <c r="I123" s="100"/>
+      <c r="J123" s="100"/>
+    </row>
+    <row r="124" spans="2:10" s="114" customFormat="1">
+      <c r="B124" s="115"/>
+      <c r="I124" s="100"/>
+      <c r="J124" s="100"/>
+    </row>
+    <row r="125" spans="2:10" s="114" customFormat="1">
+      <c r="B125" s="115"/>
+      <c r="I125" s="100"/>
+      <c r="J125" s="100"/>
+    </row>
+    <row r="126" spans="2:10" s="114" customFormat="1">
+      <c r="B126" s="115"/>
+      <c r="I126" s="100"/>
+      <c r="J126" s="100"/>
+    </row>
+    <row r="127" spans="2:10" s="114" customFormat="1">
+      <c r="B127" s="115"/>
+      <c r="I127" s="100"/>
+      <c r="J127" s="100"/>
+    </row>
+    <row r="128" spans="2:10" s="114" customFormat="1">
+      <c r="B128" s="115"/>
+      <c r="I128" s="100"/>
+      <c r="J128" s="100"/>
+    </row>
+    <row r="129" spans="2:10" s="114" customFormat="1">
+      <c r="B129" s="115"/>
+      <c r="I129" s="100"/>
+      <c r="J129" s="100"/>
+    </row>
+    <row r="130" spans="2:10" s="114" customFormat="1">
+      <c r="B130" s="115"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+    </row>
+    <row r="131" spans="2:10" s="114" customFormat="1">
+      <c r="B131" s="115"/>
+      <c r="I131" s="100"/>
+      <c r="J131" s="100"/>
+    </row>
+    <row r="132" spans="2:10" s="114" customFormat="1">
+      <c r="B132" s="115"/>
+      <c r="I132" s="100"/>
+      <c r="J132" s="100"/>
+    </row>
+    <row r="133" spans="2:10" s="114" customFormat="1">
+      <c r="B133" s="115"/>
+      <c r="I133" s="100"/>
+      <c r="J133" s="100"/>
+    </row>
+    <row r="134" spans="2:10" s="114" customFormat="1">
+      <c r="B134" s="115"/>
+      <c r="I134" s="100"/>
+      <c r="J134" s="100"/>
+    </row>
+    <row r="135" spans="2:10" s="114" customFormat="1">
+      <c r="B135" s="115"/>
+      <c r="I135" s="100"/>
+      <c r="J135" s="100"/>
+    </row>
+    <row r="136" spans="2:10" s="114" customFormat="1">
+      <c r="B136" s="115"/>
+      <c r="I136" s="100"/>
+      <c r="J136" s="100"/>
+    </row>
+    <row r="137" spans="2:10" s="114" customFormat="1">
+      <c r="B137" s="115"/>
+      <c r="I137" s="100"/>
+      <c r="J137" s="100"/>
+    </row>
+    <row r="138" spans="2:10" s="114" customFormat="1">
+      <c r="B138" s="115"/>
+      <c r="I138" s="100"/>
+      <c r="J138" s="100"/>
+    </row>
+    <row r="139" spans="2:10" s="114" customFormat="1">
+      <c r="B139" s="115"/>
+      <c r="I139" s="100"/>
+      <c r="J139" s="100"/>
+    </row>
+    <row r="140" spans="2:10" s="114" customFormat="1">
+      <c r="B140" s="115"/>
+      <c r="I140" s="100"/>
+      <c r="J140" s="100"/>
+    </row>
+    <row r="141" spans="2:10" s="114" customFormat="1">
+      <c r="B141" s="115"/>
+      <c r="I141" s="100"/>
+      <c r="J141" s="100"/>
+    </row>
+    <row r="142" spans="2:10" s="114" customFormat="1">
+      <c r="B142" s="115"/>
+      <c r="I142" s="100"/>
+      <c r="J142" s="100"/>
+    </row>
+    <row r="143" spans="2:10" s="114" customFormat="1">
+      <c r="B143" s="115"/>
+      <c r="I143" s="100"/>
+      <c r="J143" s="100"/>
+    </row>
+    <row r="144" spans="2:10" s="114" customFormat="1">
+      <c r="B144" s="115"/>
+      <c r="I144" s="100"/>
+      <c r="J144" s="100"/>
+    </row>
+    <row r="145" spans="2:10" s="114" customFormat="1">
+      <c r="B145" s="115"/>
+      <c r="I145" s="100"/>
+      <c r="J145" s="100"/>
+    </row>
+    <row r="146" spans="2:10" s="114" customFormat="1">
+      <c r="B146" s="115"/>
+      <c r="I146" s="100"/>
+      <c r="J146" s="100"/>
+    </row>
+    <row r="147" spans="2:10" s="114" customFormat="1">
+      <c r="B147" s="115"/>
+      <c r="I147" s="100"/>
+      <c r="J147" s="100"/>
+    </row>
+    <row r="148" spans="2:10" s="114" customFormat="1">
+      <c r="B148" s="115"/>
+      <c r="I148" s="100"/>
+      <c r="J148" s="100"/>
+    </row>
+    <row r="149" spans="2:10" s="114" customFormat="1">
+      <c r="B149" s="115"/>
+      <c r="I149" s="100"/>
+      <c r="J149" s="100"/>
+    </row>
+    <row r="150" spans="2:10" s="114" customFormat="1">
+      <c r="B150" s="115"/>
+      <c r="I150" s="100"/>
+      <c r="J150" s="100"/>
+    </row>
+    <row r="151" spans="2:10" s="114" customFormat="1">
+      <c r="B151" s="115"/>
+      <c r="I151" s="100"/>
+      <c r="J151" s="100"/>
+    </row>
+    <row r="152" spans="2:10" s="114" customFormat="1">
+      <c r="B152" s="115"/>
+      <c r="I152" s="100"/>
+      <c r="J152" s="100"/>
+    </row>
+    <row r="153" spans="2:10" s="114" customFormat="1">
+      <c r="B153" s="115"/>
+      <c r="I153" s="100"/>
+      <c r="J153" s="100"/>
+    </row>
+    <row r="154" spans="2:10" s="114" customFormat="1">
+      <c r="B154" s="115"/>
+      <c r="I154" s="100"/>
+      <c r="J154" s="100"/>
+    </row>
+    <row r="155" spans="2:10" s="114" customFormat="1">
+      <c r="B155" s="115"/>
+      <c r="I155" s="100"/>
+      <c r="J155" s="100"/>
+    </row>
+    <row r="156" spans="2:10" s="114" customFormat="1">
+      <c r="B156" s="115"/>
+      <c r="I156" s="100"/>
+      <c r="J156" s="100"/>
+    </row>
+    <row r="157" spans="2:10" s="114" customFormat="1">
+      <c r="B157" s="115"/>
+      <c r="I157" s="100"/>
+      <c r="J157" s="100"/>
+    </row>
+    <row r="158" spans="2:10" s="114" customFormat="1">
+      <c r="B158" s="115"/>
+      <c r="I158" s="100"/>
+      <c r="J158" s="100"/>
+    </row>
+    <row r="159" spans="2:10" s="114" customFormat="1">
+      <c r="B159" s="115"/>
+      <c r="I159" s="100"/>
+      <c r="J159" s="100"/>
+    </row>
+    <row r="160" spans="2:10" s="114" customFormat="1">
+      <c r="B160" s="115"/>
+      <c r="I160" s="100"/>
+      <c r="J160" s="100"/>
+    </row>
+    <row r="161" spans="1:10" s="114" customFormat="1">
+      <c r="B161" s="115"/>
+      <c r="I161" s="100"/>
+      <c r="J161" s="100"/>
+    </row>
+    <row r="162" spans="1:10" s="114" customFormat="1">
+      <c r="B162" s="115"/>
+      <c r="I162" s="100"/>
+      <c r="J162" s="100"/>
+    </row>
+    <row r="163" spans="1:10" s="114" customFormat="1">
+      <c r="B163" s="115"/>
+      <c r="I163" s="100"/>
+      <c r="J163" s="100"/>
+    </row>
+    <row r="164" spans="1:10" s="114" customFormat="1">
+      <c r="B164" s="115"/>
+      <c r="I164" s="100"/>
+      <c r="J164" s="100"/>
+    </row>
+    <row r="165" spans="1:10" s="114" customFormat="1">
+      <c r="B165" s="115"/>
+      <c r="I165" s="100"/>
+      <c r="J165" s="100"/>
+    </row>
+    <row r="166" spans="1:10" s="114" customFormat="1">
+      <c r="B166" s="115"/>
+      <c r="I166" s="100"/>
+      <c r="J166" s="100"/>
+    </row>
+    <row r="167" spans="1:10" s="114" customFormat="1">
+      <c r="B167" s="115"/>
+      <c r="I167" s="100"/>
+      <c r="J167" s="100"/>
+    </row>
+    <row r="168" spans="1:10" s="114" customFormat="1">
+      <c r="B168" s="115"/>
+      <c r="I168" s="100"/>
+      <c r="J168" s="100"/>
+    </row>
+    <row r="169" spans="1:10" s="114" customFormat="1">
+      <c r="B169" s="115"/>
+      <c r="I169" s="100"/>
+      <c r="J169" s="100"/>
+    </row>
+    <row r="170" spans="1:10" s="114" customFormat="1">
+      <c r="B170" s="115"/>
+      <c r="I170" s="100"/>
+      <c r="J170" s="100"/>
+    </row>
+    <row r="171" spans="1:10" s="114" customFormat="1">
+      <c r="B171" s="115"/>
+      <c r="I171" s="100"/>
+      <c r="J171" s="100"/>
+    </row>
+    <row r="172" spans="1:10" s="116" customFormat="1">
+      <c r="A172" s="114"/>
+      <c r="B172" s="115"/>
+      <c r="C172" s="114"/>
+      <c r="D172" s="114"/>
+      <c r="E172" s="114"/>
+      <c r="F172" s="114"/>
+      <c r="G172" s="114"/>
+      <c r="H172" s="114"/>
+      <c r="I172" s="100"/>
+      <c r="J172" s="100"/>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="116"/>
+      <c r="B173" s="117"/>
+      <c r="C173" s="116"/>
+      <c r="D173" s="116"/>
+      <c r="E173" s="116"/>
+      <c r="F173" s="116"/>
+      <c r="G173" s="116"/>
+      <c r="H173" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="69">
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="A50:J50"/>
@@ -7531,16 +7550,15 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A52:J52"/>
     <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D55:F55"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D34:F34"/>
@@ -7569,17 +7587,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="22.2">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -7599,29 +7617,31 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="128"/>
+      <c r="C3" s="127" t="s">
+        <v>197</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="13.8">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
-        <v>43785</v>
+      <c r="C4" s="127" t="s">
+        <v>198</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7630,7 +7650,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7639,7 +7659,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="9"/>
       <c r="B7" s="42" t="s">
         <v>21</v>
@@ -7660,18 +7680,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="51" customFormat="1" ht="14.25">
+    <row r="8" spans="1:7" s="51" customFormat="1" ht="13.8">
       <c r="A8" s="52"/>
       <c r="B8" s="53">
         <v>1</v>
       </c>
       <c r="C8" s="54" t="str">
         <f>'Export all carrier choices'!B4</f>
-        <v>CR100 - Export to excel</v>
+        <v>QLNH01 - Export to excel</v>
       </c>
       <c r="D8" s="55">
         <f>'Export all carrier choices'!B6</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="54">
         <f>'Export all carrier choices'!B7</f>
@@ -7683,10 +7703,10 @@
       </c>
       <c r="G8" s="55">
         <f>'Export all carrier choices'!D7</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="8"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
@@ -7695,7 +7715,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="8"/>
       <c r="B10" s="46"/>
       <c r="C10" s="47" t="s">
@@ -7703,7 +7723,7 @@
       </c>
       <c r="D10" s="48">
         <f>SUM(D6:D9)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="48">
         <f>SUM(E6:E9)</f>
@@ -7715,10 +7735,10 @@
       </c>
       <c r="G10" s="49">
         <f>SUM(G6:G9)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
@@ -7727,7 +7747,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -7743,7 +7763,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
